--- a/data/trans_orig/P5706-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>287646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>266328</v>
+        <v>265781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>309889</v>
+        <v>309863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6071341641540189</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5621388411377237</v>
+        <v>0.5609838074326597</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6540842505347557</v>
+        <v>0.6540287793941649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>170</v>
@@ -765,19 +765,19 @@
         <v>174105</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>157121</v>
+        <v>157153</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192905</v>
+        <v>193307</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5677103373569442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5123274123948209</v>
+        <v>0.5124343045462327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6290117721466073</v>
+        <v>0.6303204224622716</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>450</v>
@@ -786,19 +786,19 @@
         <v>461752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>435261</v>
+        <v>434616</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>490397</v>
+        <v>489105</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5916425776699301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5576997168158767</v>
+        <v>0.5568739317840409</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6283455780832792</v>
+        <v>0.6266909121180714</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>130606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109944</v>
+        <v>110904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149940</v>
+        <v>151417</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2756693322070368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2320582519251957</v>
+        <v>0.2340858783090277</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3164776589542325</v>
+        <v>0.3195953698187763</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -836,19 +836,19 @@
         <v>93186</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78058</v>
+        <v>78101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109538</v>
+        <v>109928</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3038539209768296</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2545259838305434</v>
+        <v>0.2546660204090005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3571745866551626</v>
+        <v>0.3584463819212896</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>216</v>
@@ -857,19 +857,19 @@
         <v>223792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>196131</v>
+        <v>199518</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247211</v>
+        <v>249414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2867444618917614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2513029183846861</v>
+        <v>0.2556421895306973</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3167514310082363</v>
+        <v>0.3195742308480999</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>36221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25780</v>
+        <v>25481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49761</v>
+        <v>49380</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0764524241856438</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05441473095151184</v>
+        <v>0.05378285153901288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1050302295554193</v>
+        <v>0.1042263270267853</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -907,19 +907,19 @@
         <v>26258</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17393</v>
+        <v>16879</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37836</v>
+        <v>36138</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08561874636319983</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05671273118253538</v>
+        <v>0.05503920808297461</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1233714078004951</v>
+        <v>0.1178374675180577</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -928,19 +928,19 @@
         <v>62479</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49276</v>
+        <v>47469</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78503</v>
+        <v>78752</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08005432903079109</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06313732047870613</v>
+        <v>0.06082209782881941</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1005861180447317</v>
+        <v>0.1009049366315025</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>15788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8610</v>
+        <v>8786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25940</v>
+        <v>26866</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0333238254773539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01817319805553605</v>
+        <v>0.01854500635126292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05475165450761967</v>
+        <v>0.05670630092368387</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -978,19 +978,19 @@
         <v>10953</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5439</v>
+        <v>4922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19429</v>
+        <v>19441</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03571600599169461</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01773472141095419</v>
+        <v>0.01604862243944704</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06335416111408908</v>
+        <v>0.06339043110529752</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -999,19 +999,19 @@
         <v>26741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17021</v>
+        <v>17432</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39783</v>
+        <v>40158</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03426383243086992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02180897355900567</v>
+        <v>0.02233536041406443</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05097432829656548</v>
+        <v>0.05145416012797501</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>3516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10075</v>
+        <v>10989</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007420253975946631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001830044086692279</v>
+        <v>0.00181080978062067</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02126588564667413</v>
+        <v>0.02319351929863489</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7721</v>
+        <v>7354</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007100989311331728</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02517557660540824</v>
+        <v>0.02397908227421542</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>5693</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1822</v>
+        <v>1795</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12263</v>
+        <v>12746</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007294798976647517</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002335040093628506</v>
+        <v>0.00229934720109767</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01571293077273804</v>
+        <v>0.01633195884055651</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>227837</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208541</v>
+        <v>206477</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244635</v>
+        <v>244438</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6209222052797143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5683335538944533</v>
+        <v>0.562708917243733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6667015357474565</v>
+        <v>0.6661627840809277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -1195,19 +1195,19 @@
         <v>231108</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>211322</v>
+        <v>211458</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249750</v>
+        <v>248341</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6214839452641467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5682755005822754</v>
+        <v>0.5686416194724393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6716152371998784</v>
+        <v>0.6678256104879776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>441</v>
@@ -1216,19 +1216,19 @@
         <v>458946</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>431843</v>
+        <v>429178</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>484874</v>
+        <v>486938</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6212049497910744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5845206454058942</v>
+        <v>0.5809134566003117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6563006379958608</v>
+        <v>0.6590938131293315</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>81809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67603</v>
+        <v>67541</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98227</v>
+        <v>99529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2229520935106036</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1842369361299624</v>
+        <v>0.1840698374650578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2676966143301765</v>
+        <v>0.2712462520718062</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -1266,19 +1266,19 @@
         <v>99078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82081</v>
+        <v>83777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115998</v>
+        <v>117606</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2664362429471868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2207283309381942</v>
+        <v>0.2252896009249899</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3119358279189871</v>
+        <v>0.3162596439596843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>179</v>
@@ -1287,19 +1287,19 @@
         <v>180887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>159261</v>
+        <v>157827</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>205558</v>
+        <v>204481</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2448392742794466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2155676903045627</v>
+        <v>0.2136265468134191</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2782330638794833</v>
+        <v>0.276774622492772</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>39351</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27813</v>
+        <v>28974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51796</v>
+        <v>53098</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1072435316245834</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07579941205515818</v>
+        <v>0.07896322287852812</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1411586920559577</v>
+        <v>0.1447061560545499</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -1337,19 +1337,19 @@
         <v>27466</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18955</v>
+        <v>18484</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39968</v>
+        <v>38841</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07385935093367006</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05097395745890405</v>
+        <v>0.04970566401848135</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1074805950307963</v>
+        <v>0.1044484241283903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -1358,19 +1358,19 @@
         <v>66817</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>53137</v>
+        <v>52101</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>83304</v>
+        <v>83939</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09044003869511118</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07192327310390471</v>
+        <v>0.07052098226429197</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1127559979345282</v>
+        <v>0.1136148204818951</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>13667</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7222</v>
+        <v>7207</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23711</v>
+        <v>23636</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0372460984521788</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01968187035429431</v>
+        <v>0.01964197106284692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06461920675818651</v>
+        <v>0.06441556784409608</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1408,19 +1408,19 @@
         <v>12243</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6598</v>
+        <v>6655</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20924</v>
+        <v>20707</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03292395498175151</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01774364220338354</v>
+        <v>0.01789754151713964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05626752031053021</v>
+        <v>0.05568474153554402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1429,19 +1429,19 @@
         <v>25910</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16703</v>
+        <v>16889</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37104</v>
+        <v>39172</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0350706037794802</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0226084572696281</v>
+        <v>0.02286035882992831</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05022140886438075</v>
+        <v>0.053021522121441</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>4270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11385</v>
+        <v>11994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01163607113291994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002619991371577381</v>
+        <v>0.002639799659205626</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03102724666070462</v>
+        <v>0.03268654028242665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6015</v>
+        <v>6857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005296505873244882</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01617655249971555</v>
+        <v>0.01843921431304734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>6239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1970</v>
+        <v>2497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13893</v>
+        <v>14223</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008445133454887526</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002665989493442501</v>
+        <v>0.003379513948516763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01880518752022977</v>
+        <v>0.0192517667035026</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>304128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>282102</v>
+        <v>281955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>325935</v>
+        <v>329480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5607193639979933</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5201098573302707</v>
+        <v>0.5198388387261115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6009240371973006</v>
+        <v>0.6074611294804946</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -1625,19 +1625,19 @@
         <v>88108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74685</v>
+        <v>74157</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100101</v>
+        <v>101124</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5251329667307258</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4451326407575599</v>
+        <v>0.4419817713425058</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5966134002717635</v>
+        <v>0.6027111378361579</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>381</v>
@@ -1646,19 +1646,19 @@
         <v>392236</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>363144</v>
+        <v>365787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417199</v>
+        <v>416666</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5523118767840673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5113467535800956</v>
+        <v>0.5150686338468646</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5874628735158939</v>
+        <v>0.5867118018420941</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>142711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123211</v>
+        <v>123115</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>162602</v>
+        <v>164061</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2631158513777266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2271628681241664</v>
+        <v>0.2269867128274146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2997887683118076</v>
+        <v>0.3024775964414244</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -1696,19 +1696,19 @@
         <v>58109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47188</v>
+        <v>44680</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71376</v>
+        <v>70117</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3463346422010785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.281245002161663</v>
+        <v>0.2662962888799382</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4254074613740417</v>
+        <v>0.4179024469930247</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>202</v>
@@ -1717,19 +1717,19 @@
         <v>200820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>179161</v>
+        <v>178605</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>228189</v>
+        <v>226141</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2827767604197682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2522790889585459</v>
+        <v>0.2514958865063994</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3213152124855368</v>
+        <v>0.3184312119655417</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>70037</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54338</v>
+        <v>55080</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>86728</v>
+        <v>86708</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1291261018485841</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1001820162078574</v>
+        <v>0.1015509726510782</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1599007800902328</v>
+        <v>0.1598624672546671</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1767,19 +1767,19 @@
         <v>12822</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7027</v>
+        <v>7031</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21740</v>
+        <v>21521</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07641941588965383</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04188237528469121</v>
+        <v>0.04190622531939148</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1295747551645937</v>
+        <v>0.1282683518633795</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>80</v>
@@ -1788,19 +1788,19 @@
         <v>82858</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>67634</v>
+        <v>65893</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104296</v>
+        <v>100833</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.116673849799577</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09523575767249742</v>
+        <v>0.09278524059207047</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1468597034707833</v>
+        <v>0.1419837738337204</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>22905</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14953</v>
+        <v>14568</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35158</v>
+        <v>34418</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04222925255055914</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02756830601530709</v>
+        <v>0.02685982536759182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06482065611927394</v>
+        <v>0.06345615957120486</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1838,19 +1838,19 @@
         <v>7576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2858</v>
+        <v>2896</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16918</v>
+        <v>16882</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04515646413634065</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01703339289948023</v>
+        <v>0.01725811228195724</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1008311753258143</v>
+        <v>0.1006178467283535</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -1859,19 +1859,19 @@
         <v>30481</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20761</v>
+        <v>20142</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43676</v>
+        <v>42817</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04292082280969719</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02923390805720702</v>
+        <v>0.02836250386521415</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06150106318703469</v>
+        <v>0.06029058750839545</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>2609</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6776</v>
+        <v>7016</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004809430225136819</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001544848576554623</v>
+        <v>0.001541322492045732</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01249296160944829</v>
+        <v>0.01293554122462577</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5850</v>
+        <v>5845</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00695651104220123</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03486436005289567</v>
+        <v>0.03483976156564249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1930,19 +1930,19 @@
         <v>3776</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9716</v>
+        <v>9848</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005316690186890196</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001293188189746397</v>
+        <v>0.001296586073560721</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01368107807158113</v>
+        <v>0.01386672089497982</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>631895</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>596606</v>
+        <v>597636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>668680</v>
+        <v>668415</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5102780818550333</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4817811888091054</v>
+        <v>0.482612710133666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5399835065801073</v>
+        <v>0.5397695363943232</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>352</v>
@@ -2055,19 +2055,19 @@
         <v>359342</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>332942</v>
+        <v>332580</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>386499</v>
+        <v>386240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5030787060934114</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4661185746949978</v>
+        <v>0.4656129437671128</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5410991409019984</v>
+        <v>0.5407359896080637</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>967</v>
@@ -2076,19 +2076,19 @@
         <v>991237</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>951161</v>
+        <v>946440</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1043558</v>
+        <v>1036166</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5076444874011917</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4871201873481595</v>
+        <v>0.4847026549988291</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5344400367610728</v>
+        <v>0.5306544414780233</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>398788</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>364838</v>
+        <v>367589</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>428964</v>
+        <v>432173</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3220357919323266</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2946202476312786</v>
+        <v>0.2968416880900276</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3464039570551136</v>
+        <v>0.3489952595319364</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>217</v>
@@ -2126,19 +2126,19 @@
         <v>222330</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>197693</v>
+        <v>198547</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>248074</v>
+        <v>249089</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3112628072254511</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2767708914168943</v>
+        <v>0.2779658395379356</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3473032502391606</v>
+        <v>0.3487246236408956</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>615</v>
@@ -2147,19 +2147,19 @@
         <v>621119</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>582856</v>
+        <v>576565</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>661294</v>
+        <v>660777</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3180949401536779</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2984995244967903</v>
+        <v>0.2952778087601151</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.338670001209971</v>
+        <v>0.3384050916055638</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>157145</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>135109</v>
+        <v>135240</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>181290</v>
+        <v>181204</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1269002206758191</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1091053962111001</v>
+        <v>0.1092112069045759</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1463979633856407</v>
+        <v>0.1463289313846139</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -2197,19 +2197,19 @@
         <v>106169</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>87580</v>
+        <v>88764</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>125268</v>
+        <v>127888</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.148636073122275</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1226124512436204</v>
+        <v>0.1242697448870731</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1753750021617884</v>
+        <v>0.1790434754629291</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>260</v>
@@ -2218,19 +2218,19 @@
         <v>263314</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>234402</v>
+        <v>231869</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>294371</v>
+        <v>293339</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1348513851028319</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1200446505554162</v>
+        <v>0.1187476208942882</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1507567873734031</v>
+        <v>0.1502281767709256</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>39125</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28015</v>
+        <v>28216</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53295</v>
+        <v>52256</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03159464921074019</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0226232134487388</v>
+        <v>0.02278526154899296</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.043037473107236</v>
+        <v>0.04219836117963425</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -2268,19 +2268,19 @@
         <v>22641</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14335</v>
+        <v>14175</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33650</v>
+        <v>33214</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03169767327054244</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02006917649361645</v>
+        <v>0.01984468953402052</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04711011985877076</v>
+        <v>0.04649994130157476</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -2289,19 +2289,19 @@
         <v>61766</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47748</v>
+        <v>48434</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77921</v>
+        <v>79417</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03163233631049595</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02445349249479478</v>
+        <v>0.02480483430523748</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03990571700347575</v>
+        <v>0.04067199658847217</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>11382</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5339</v>
+        <v>5966</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20795</v>
+        <v>20638</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009191256326080746</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004311672943585215</v>
+        <v>0.004817445199348222</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01679268988281762</v>
+        <v>0.01666594582249317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2339,19 +2339,19 @@
         <v>3803</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>964</v>
+        <v>1007</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9702</v>
+        <v>9462</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00532474028832009</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001348961856584109</v>
+        <v>0.00140963460887572</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0135832015377847</v>
+        <v>0.01324631611146111</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -2360,19 +2360,19 @@
         <v>15185</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8168</v>
+        <v>8348</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24731</v>
+        <v>23905</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007776851031802541</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004183333188366031</v>
+        <v>0.004275215838784843</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0126656102965462</v>
+        <v>0.01224230343933099</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>188822</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>170133</v>
+        <v>168709</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>208314</v>
+        <v>208270</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5386378727574423</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4853258784209075</v>
+        <v>0.4812627572918253</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5942418078914451</v>
+        <v>0.594114400760637</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>268</v>
@@ -2485,19 +2485,19 @@
         <v>280990</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>254744</v>
+        <v>257003</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>306464</v>
+        <v>306799</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4940473196371484</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4479001166757724</v>
+        <v>0.4518713423084109</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5388355007744509</v>
+        <v>0.5394249012970965</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>449</v>
@@ -2506,19 +2506,19 @@
         <v>469813</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>441480</v>
+        <v>437389</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>500246</v>
+        <v>499539</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5110508358668366</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.480231059465565</v>
+        <v>0.4757808079442913</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5441558812755972</v>
+        <v>0.543386947619627</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>91555</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75353</v>
+        <v>76079</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>109264</v>
+        <v>111432</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2611703963253014</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2149531388360564</v>
+        <v>0.2170239924392635</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3116880124096469</v>
+        <v>0.3178728238613132</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>158</v>
@@ -2556,19 +2556,19 @@
         <v>166345</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>143886</v>
+        <v>143812</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>188491</v>
+        <v>185875</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2924743702152561</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2529859812355482</v>
+        <v>0.2528553753771437</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3314114907415767</v>
+        <v>0.3268126704792541</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>249</v>
@@ -2577,19 +2577,19 @@
         <v>257900</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>230907</v>
+        <v>230534</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>287029</v>
+        <v>286994</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2805373658310398</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2511749033980925</v>
+        <v>0.2507691689320342</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.312223482896134</v>
+        <v>0.3121853678838514</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>55689</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42574</v>
+        <v>42880</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72439</v>
+        <v>70309</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1588585551145812</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1214462119574946</v>
+        <v>0.122321686879027</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2066410456445526</v>
+        <v>0.2005634352687561</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>84</v>
@@ -2627,19 +2627,19 @@
         <v>89484</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>73564</v>
+        <v>74537</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>108754</v>
+        <v>111652</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1573338648292522</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1293429322162387</v>
+        <v>0.1310533546570876</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.191214687803521</v>
+        <v>0.1963107631527722</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -2648,19 +2648,19 @@
         <v>145173</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>123729</v>
+        <v>124675</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168989</v>
+        <v>172230</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1579152681579326</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1345897190964531</v>
+        <v>0.135618055320073</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.183821769168434</v>
+        <v>0.1873479557167647</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>11851</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6287</v>
+        <v>6169</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20844</v>
+        <v>21820</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03380568485369653</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01793580935879244</v>
+        <v>0.01759638590350334</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05946067336575293</v>
+        <v>0.06224553396485129</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>26</v>
@@ -2698,19 +2698,19 @@
         <v>27921</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18401</v>
+        <v>18198</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>39857</v>
+        <v>39537</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04909235278507783</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03235405206157169</v>
+        <v>0.03199610846394495</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07007753792952885</v>
+        <v>0.06951555077847632</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>37</v>
@@ -2719,19 +2719,19 @@
         <v>39772</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>27747</v>
+        <v>28892</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>54853</v>
+        <v>55219</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04326315605885919</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03018246512066806</v>
+        <v>0.03142835466187952</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05966787011554291</v>
+        <v>0.06006621689106546</v>
       </c>
     </row>
     <row r="32">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9454</v>
+        <v>9482</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007527490948978522</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02696874537758545</v>
+        <v>0.02704794746891265</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2769,19 +2769,19 @@
         <v>4011</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10926</v>
+        <v>11329</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007052092533265418</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002033304979077887</v>
+        <v>0.002040783618443065</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01921031137042326</v>
+        <v>0.01991872463034208</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2790,19 +2790,19 @@
         <v>6650</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2267</v>
+        <v>2162</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15028</v>
+        <v>14557</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007233374085331811</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002466087968798876</v>
+        <v>0.002351316526029678</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01634659837048734</v>
+        <v>0.0158342393823959</v>
       </c>
     </row>
     <row r="33">
@@ -2894,19 +2894,19 @@
         <v>192561</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>176895</v>
+        <v>175869</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>208341</v>
+        <v>207496</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6457430389058409</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5932082086164852</v>
+        <v>0.5897650747665144</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6986587837398711</v>
+        <v>0.6958244397527296</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>671</v>
@@ -2915,19 +2915,19 @@
         <v>671164</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>635599</v>
+        <v>634708</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>707803</v>
+        <v>707476</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5374645840002492</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5089838853867307</v>
+        <v>0.5082707421697689</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5668043866419713</v>
+        <v>0.5665431159412366</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>868</v>
@@ -2936,19 +2936,19 @@
         <v>863725</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>826235</v>
+        <v>820255</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>903702</v>
+        <v>900683</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.558336931582889</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5341026366513055</v>
+        <v>0.5302363997612474</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5841795638860859</v>
+        <v>0.5822278988665507</v>
       </c>
     </row>
     <row r="35">
@@ -2965,19 +2965,19 @@
         <v>79083</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>64764</v>
+        <v>65985</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>94507</v>
+        <v>95359</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2651988437396637</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2171808338622018</v>
+        <v>0.2212775874193316</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3169252132456101</v>
+        <v>0.3197825580900492</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>322</v>
@@ -2986,19 +2986,19 @@
         <v>322906</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>293776</v>
+        <v>295270</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>352937</v>
+        <v>352968</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2585810379874212</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2352538096834663</v>
+        <v>0.2364503992088819</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.28263023569693</v>
+        <v>0.2826547764895857</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>404</v>
@@ -3007,19 +3007,19 @@
         <v>401988</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>370826</v>
+        <v>370397</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>441004</v>
+        <v>437547</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2598567224439055</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.239712421119151</v>
+        <v>0.2394356242929248</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2850778532523656</v>
+        <v>0.2828428128263974</v>
       </c>
     </row>
     <row r="36">
@@ -3036,19 +3036,19 @@
         <v>24654</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16774</v>
+        <v>16877</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>35788</v>
+        <v>36620</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.08267414741105628</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05624998068789748</v>
+        <v>0.05659451484665286</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1200137080605993</v>
+        <v>0.1228016257216086</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>178</v>
@@ -3057,19 +3057,19 @@
         <v>182969</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>158648</v>
+        <v>159427</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>206243</v>
+        <v>210951</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1465203024732017</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1270444437289408</v>
+        <v>0.1276685357083443</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1651586190788618</v>
+        <v>0.1689286764596312</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>203</v>
@@ -3078,19 +3078,19 @@
         <v>207622</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>182648</v>
+        <v>181322</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>236389</v>
+        <v>234970</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1342129681892563</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.118069046030094</v>
+        <v>0.1172119074177067</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.15280890300655</v>
+        <v>0.1518911835918735</v>
       </c>
     </row>
     <row r="37">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.003066313466181129</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>49</v>
@@ -3128,19 +3128,19 @@
         <v>52529</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>40021</v>
+        <v>39596</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>68805</v>
+        <v>70153</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04206524950022721</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03204827715319217</v>
+        <v>0.03170798856989771</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0550990451123092</v>
+        <v>0.05617784283451157</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>50</v>
@@ -3149,19 +3149,19 @@
         <v>53444</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>40718</v>
+        <v>40897</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>69367</v>
+        <v>71177</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0345476011465868</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02632138949694268</v>
+        <v>0.02643677965132922</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04484091478950927</v>
+        <v>0.04601085883973265</v>
       </c>
     </row>
     <row r="38">
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4927</v>
+        <v>4997</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003317656477257937</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01652313392829158</v>
+        <v>0.0167561797567274</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>18</v>
@@ -3199,19 +3199,19 @@
         <v>19192</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>11762</v>
+        <v>11052</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>29242</v>
+        <v>28870</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01536882603890073</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.009419093458260044</v>
+        <v>0.008850604116608561</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0234168581886536</v>
+        <v>0.0231185500195907</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>19</v>
@@ -3220,19 +3220,19 @@
         <v>20181</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>12311</v>
+        <v>12794</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>30220</v>
+        <v>30723</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01304577663736232</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.007957969214344404</v>
+        <v>0.008270258664541872</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01953534118338349</v>
+        <v>0.01986035359895064</v>
       </c>
     </row>
     <row r="39">
@@ -3324,19 +3324,19 @@
         <v>1832890</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1772550</v>
+        <v>1773010</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1888164</v>
+        <v>1889208</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5604841672102951</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5420327264937743</v>
+        <v>0.5421733075011506</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5773867375994133</v>
+        <v>0.577706025695813</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1773</v>
@@ -3345,19 +3345,19 @@
         <v>1804818</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1744503</v>
+        <v>1745531</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1862159</v>
+        <v>1860197</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5342662498836998</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5164116601201095</v>
+        <v>0.5167161594282978</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.551240553712653</v>
+        <v>0.5506598634166319</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3556</v>
@@ -3366,19 +3366,19 @@
         <v>3637707</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3557002</v>
+        <v>3552714</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3720223</v>
+        <v>3716515</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5471623872772851</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.535023204653744</v>
+        <v>0.5343781299527375</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5595739723852113</v>
+        <v>0.5590161067577156</v>
       </c>
     </row>
     <row r="41">
@@ -3395,19 +3395,19 @@
         <v>924551</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>873551</v>
+        <v>877883</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>980521</v>
+        <v>979370</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2827207792935506</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2671253607871423</v>
+        <v>0.2684501078011278</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2998360462604948</v>
+        <v>0.2994842071743115</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>944</v>
@@ -3416,19 +3416,19 @@
         <v>961954</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>903735</v>
+        <v>911593</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1011517</v>
+        <v>1012888</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2847599342663111</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2675256584098251</v>
+        <v>0.2698519695592848</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2994314584500125</v>
+        <v>0.299837305805107</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1865</v>
@@ -3437,19 +3437,19 @@
         <v>1886505</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1815900</v>
+        <v>1813642</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1955936</v>
+        <v>1964008</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2837569094124316</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2731369781146759</v>
+        <v>0.2727973584116043</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2942002989084223</v>
+        <v>0.2954144675486364</v>
       </c>
     </row>
     <row r="42">
@@ -3466,19 +3466,19 @@
         <v>383096</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>344145</v>
+        <v>347052</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>418092</v>
+        <v>420635</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.117148044488203</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1052371470721522</v>
+        <v>0.1061258365049291</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1278493506764085</v>
+        <v>0.1286271693570156</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>425</v>
@@ -3487,19 +3487,19 @@
         <v>445166</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>404300</v>
+        <v>409073</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>483784</v>
+        <v>488605</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1317791223741069</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1196818102865223</v>
+        <v>0.1210946110875218</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1432109691790349</v>
+        <v>0.1446379489095012</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>805</v>
@@ -3508,19 +3508,19 @@
         <v>828263</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>773221</v>
+        <v>779490</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>884886</v>
+        <v>888106</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1245823497135469</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1163033315337843</v>
+        <v>0.1172462486086893</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1330992989913291</v>
+        <v>0.1335837106148343</v>
       </c>
     </row>
     <row r="43">
@@ -3537,19 +3537,19 @@
         <v>104249</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>84782</v>
+        <v>83900</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>127949</v>
+        <v>129111</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03187872230932559</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02592574500967004</v>
+        <v>0.02565585220019193</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03912593325165122</v>
+        <v>0.03948105348390959</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>124</v>
@@ -3558,19 +3558,19 @@
         <v>133865</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>113021</v>
+        <v>110569</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>157865</v>
+        <v>156536</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0396270338355235</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03345687208899549</v>
+        <v>0.03273096335547884</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04673144784067654</v>
+        <v>0.04633824895794179</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>224</v>
@@ -3579,19 +3579,19 @@
         <v>238115</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>209557</v>
+        <v>207537</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>270004</v>
+        <v>271407</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0358157742009229</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03152025743115215</v>
+        <v>0.03121644239062606</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.040612336907737</v>
+        <v>0.04082348944839168</v>
       </c>
     </row>
     <row r="44">
@@ -3608,19 +3608,19 @@
         <v>25404</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>15853</v>
+        <v>16390</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>37465</v>
+        <v>38879</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.007768286698625559</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.004847795123749803</v>
+        <v>0.005011871391799888</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01145641392428552</v>
+        <v>0.01188880962680722</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>30</v>
@@ -3629,19 +3629,19 @@
         <v>32321</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>22089</v>
+        <v>22188</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>46175</v>
+        <v>45586</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.009567659640358774</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.00653892913833426</v>
+        <v>0.006568265964761969</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01366875518806771</v>
+        <v>0.01349447088901592</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>53</v>
@@ -3650,19 +3650,19 @@
         <v>57725</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>44417</v>
+        <v>44832</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>75855</v>
+        <v>75603</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.008682579395813484</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006680976029448784</v>
+        <v>0.006743301893369804</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01140973054294911</v>
+        <v>0.0113717569291137</v>
       </c>
     </row>
     <row r="45">
@@ -3996,19 +3996,19 @@
         <v>281411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>261489</v>
+        <v>258776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>301774</v>
+        <v>301150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6451957748555927</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5995216706716726</v>
+        <v>0.5933020557033675</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.69188321781601</v>
+        <v>0.6904524689707484</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -4017,19 +4017,19 @@
         <v>197501</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>178447</v>
+        <v>177879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214757</v>
+        <v>214091</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6280748430094881</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5674823061510214</v>
+        <v>0.5656747774898692</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6829517648483392</v>
+        <v>0.6808352848932382</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>434</v>
@@ -4038,19 +4038,19 @@
         <v>478911</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>451047</v>
+        <v>450607</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>506934</v>
+        <v>505729</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6380233423667757</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6009022820843093</v>
+        <v>0.6003150021870728</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6753558941505465</v>
+        <v>0.6737511990707488</v>
       </c>
     </row>
     <row r="5">
@@ -4067,19 +4067,19 @@
         <v>104852</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87544</v>
+        <v>87404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123300</v>
+        <v>124839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2403968945164366</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2007137936527067</v>
+        <v>0.2003938084330327</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2826918842146612</v>
+        <v>0.2862200661858316</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -4088,19 +4088,19 @@
         <v>83079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68540</v>
+        <v>68770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100067</v>
+        <v>100600</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2642020505302043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2179635659333939</v>
+        <v>0.2186955996535265</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3182239803100902</v>
+        <v>0.3199207151056276</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -4109,19 +4109,19 @@
         <v>187932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>165536</v>
+        <v>164808</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>214273</v>
+        <v>214265</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.250369533618633</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2205327740388903</v>
+        <v>0.2195630674096549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2854624388555964</v>
+        <v>0.2854513533475138</v>
       </c>
     </row>
     <row r="6">
@@ -4138,19 +4138,19 @@
         <v>32767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23524</v>
+        <v>23309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45153</v>
+        <v>46344</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07512584232011491</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05393331753868898</v>
+        <v>0.05344150770637091</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1035235640046706</v>
+        <v>0.1062546019773701</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -4159,19 +4159,19 @@
         <v>27084</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17451</v>
+        <v>17197</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40131</v>
+        <v>38484</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08613008843136977</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05549472363958648</v>
+        <v>0.05468877534565378</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.127621546122959</v>
+        <v>0.1223822206785995</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -4180,19 +4180,19 @@
         <v>59851</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46457</v>
+        <v>44569</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77372</v>
+        <v>75557</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07973582576218201</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06189227433156062</v>
+        <v>0.0593770018013234</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1030779083739955</v>
+        <v>0.1006601777330425</v>
       </c>
     </row>
     <row r="7">
@@ -4209,19 +4209,19 @@
         <v>13833</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7790</v>
+        <v>7001</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24486</v>
+        <v>23888</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03171483643960244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01785918293143866</v>
+        <v>0.01605234252245034</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05613910411152651</v>
+        <v>0.05476737947780654</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4230,19 +4230,19 @@
         <v>6790</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2878</v>
+        <v>2858</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13055</v>
+        <v>13360</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02159301802893782</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009152505260206271</v>
+        <v>0.009088911540235885</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04151528663075736</v>
+        <v>0.04248701328744794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4251,19 +4251,19 @@
         <v>20623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12663</v>
+        <v>12778</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31980</v>
+        <v>32285</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02747452639882193</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01687027964351651</v>
+        <v>0.01702366400940315</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0426051102641288</v>
+        <v>0.04301113669103525</v>
       </c>
     </row>
     <row r="8">
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11729</v>
+        <v>12542</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007566651868253467</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02689072991795221</v>
+        <v>0.02875437706406017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11137</v>
+        <v>10765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004396771853587307</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01483677044486088</v>
+        <v>0.01434211795763197</v>
       </c>
     </row>
     <row r="9">
@@ -4418,19 +4418,19 @@
         <v>276043</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>255875</v>
+        <v>254539</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>295070</v>
+        <v>295440</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6611703818324396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6128650625439274</v>
+        <v>0.6096637589143907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7067437583786953</v>
+        <v>0.7076281667115315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>194</v>
@@ -4439,19 +4439,19 @@
         <v>215435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196247</v>
+        <v>195645</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>232648</v>
+        <v>232821</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6426264788289157</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5853910653382074</v>
+        <v>0.5835959791863201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6939730687084184</v>
+        <v>0.6944893425439024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>444</v>
@@ -4460,19 +4460,19 @@
         <v>491478</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>464084</v>
+        <v>464962</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>520802</v>
+        <v>520101</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6529117392375284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6165191043709064</v>
+        <v>0.6176855894294992</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.691867401824624</v>
+        <v>0.6909365173900163</v>
       </c>
     </row>
     <row r="11">
@@ -4489,19 +4489,19 @@
         <v>101477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84266</v>
+        <v>84612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>121984</v>
+        <v>122272</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2430534812702661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2018324483963218</v>
+        <v>0.202659856546165</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2921726319609274</v>
+        <v>0.2928620114342736</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -4510,19 +4510,19 @@
         <v>82117</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66618</v>
+        <v>66869</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97966</v>
+        <v>99769</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2449487994135831</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1987182184242302</v>
+        <v>0.1994650276908513</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2922252500259648</v>
+        <v>0.2976032512879548</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>165</v>
@@ -4531,19 +4531,19 @@
         <v>183593</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>160448</v>
+        <v>159910</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>210529</v>
+        <v>210947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2438975729993013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2131500272672671</v>
+        <v>0.2124355927121719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2796799297597219</v>
+        <v>0.2802363997222501</v>
       </c>
     </row>
     <row r="12">
@@ -4560,19 +4560,19 @@
         <v>29580</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19768</v>
+        <v>19902</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41895</v>
+        <v>41747</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07084932688347499</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04734736475070015</v>
+        <v>0.04766771725621078</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1003456387451326</v>
+        <v>0.09999032194887807</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -4581,19 +4581,19 @@
         <v>23819</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15307</v>
+        <v>15461</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35369</v>
+        <v>35262</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07105010003002148</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04565867372059713</v>
+        <v>0.04611941382313452</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1055044244836853</v>
+        <v>0.1051854164570222</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -4602,19 +4602,19 @@
         <v>53399</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>40827</v>
+        <v>40499</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70563</v>
+        <v>71318</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07093874245363128</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05423785170597963</v>
+        <v>0.0538010740518798</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09374045930100326</v>
+        <v>0.09474307056950933</v>
       </c>
     </row>
     <row r="13">
@@ -4631,19 +4631,19 @@
         <v>4105</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9684</v>
+        <v>9905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009831672558225139</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00245797998087075</v>
+        <v>0.002440493659722361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02319577537463602</v>
+        <v>0.02372317348187887</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4652,19 +4652,19 @@
         <v>9743</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4761</v>
+        <v>4897</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19662</v>
+        <v>19797</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02906259210751905</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01420107606447583</v>
+        <v>0.01460857610571073</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05865129931521728</v>
+        <v>0.05905313028015059</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4673,19 +4673,19 @@
         <v>13848</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7272</v>
+        <v>7323</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23870</v>
+        <v>24941</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01839628224686119</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009661221405657651</v>
+        <v>0.009728126195266543</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03171053042955836</v>
+        <v>0.03313264489938161</v>
       </c>
     </row>
     <row r="14">
@@ -4702,19 +4702,19 @@
         <v>6302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18655</v>
+        <v>14867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01509513745559414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004847321773408833</v>
+        <v>0.004835348183423908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04468263790543634</v>
+        <v>0.03560995182779957</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -4723,19 +4723,19 @@
         <v>4127</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10590</v>
+        <v>10429</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01231202961996077</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003213552389515432</v>
+        <v>0.003157480056291045</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03158876381116448</v>
+        <v>0.03110825420156818</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4744,19 +4744,19 @@
         <v>10430</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4164</v>
+        <v>4179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22749</v>
+        <v>23440</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01385566306267778</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005531208708176555</v>
+        <v>0.005551612633390566</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03022105527378635</v>
+        <v>0.03113909597239428</v>
       </c>
     </row>
     <row r="15">
@@ -4848,19 +4848,19 @@
         <v>404456</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>380582</v>
+        <v>379489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>428579</v>
+        <v>428785</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6425903829893576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6046604089412745</v>
+        <v>0.6029237913665062</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6809168325540677</v>
+        <v>0.6812442981909308</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -4869,19 +4869,19 @@
         <v>155337</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139911</v>
+        <v>138149</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>171533</v>
+        <v>170201</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5971533269660357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5378510309243407</v>
+        <v>0.5310784426111601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.659414171786539</v>
+        <v>0.6542955748539652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>527</v>
@@ -4890,19 +4890,19 @@
         <v>559793</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>529806</v>
+        <v>532824</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>588807</v>
+        <v>588677</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6293032244383787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5955931698789177</v>
+        <v>0.5989855297860185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6619196129043472</v>
+        <v>0.6617740742533792</v>
       </c>
     </row>
     <row r="17">
@@ -4919,19 +4919,19 @@
         <v>161810</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139961</v>
+        <v>139373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>184355</v>
+        <v>184216</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2570797989925734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2223673260226211</v>
+        <v>0.2214328447133482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2928988686696676</v>
+        <v>0.2926777267617554</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -4940,19 +4940,19 @@
         <v>77495</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62954</v>
+        <v>62043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92685</v>
+        <v>93797</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2979114415209822</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2420089793310018</v>
+        <v>0.2385100117092841</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3563026561051799</v>
+        <v>0.3605790021201117</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -4961,19 +4961,19 @@
         <v>239305</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>214150</v>
+        <v>213975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>269586</v>
+        <v>264665</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2690201964490765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2407409759920272</v>
+        <v>0.2405446091566328</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3030608902759417</v>
+        <v>0.2975285509467011</v>
       </c>
     </row>
     <row r="18">
@@ -4990,19 +4990,19 @@
         <v>52344</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39605</v>
+        <v>39538</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>69651</v>
+        <v>68608</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0831628958049823</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06292290104487976</v>
+        <v>0.06281645074640663</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1106592835929635</v>
+        <v>0.1090032282500004</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -5011,19 +5011,19 @@
         <v>22384</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14141</v>
+        <v>14408</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33896</v>
+        <v>34163</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08604850386295612</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05436286862849019</v>
+        <v>0.05538815689182463</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1303053490774256</v>
+        <v>0.1313300919203261</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>71</v>
@@ -5032,19 +5032,19 @@
         <v>74728</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>57930</v>
+        <v>60905</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>92477</v>
+        <v>94776</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08400673418576561</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06512353155541813</v>
+        <v>0.06846777970541544</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1039596272602032</v>
+        <v>0.1065448497733746</v>
       </c>
     </row>
     <row r="19">
@@ -5061,19 +5061,19 @@
         <v>8764</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3711</v>
+        <v>3854</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19308</v>
+        <v>17930</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01392400159282402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005896437598819551</v>
+        <v>0.006122466476064301</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03067603639503436</v>
+        <v>0.0284870582815113</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -5082,19 +5082,19 @@
         <v>4913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1925</v>
+        <v>1897</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10853</v>
+        <v>10774</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0188867276500259</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007399029473515381</v>
+        <v>0.007293177481369651</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04172159969230566</v>
+        <v>0.04141848780733746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -5103,19 +5103,19 @@
         <v>13677</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7724</v>
+        <v>7938</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23414</v>
+        <v>24575</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01537525160191945</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008683290080343154</v>
+        <v>0.008923607198658326</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02632171148272363</v>
+        <v>0.02762623403741779</v>
       </c>
     </row>
     <row r="20">
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7289</v>
+        <v>7111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003242920620262693</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01158061799432394</v>
+        <v>0.01129848489533865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7148</v>
+        <v>7322</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002294593324859743</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008035206335140949</v>
+        <v>0.008231663309577869</v>
       </c>
     </row>
     <row r="21">
@@ -5270,19 +5270,19 @@
         <v>647379</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>609656</v>
+        <v>611386</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>678541</v>
+        <v>683352</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5604608552117981</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.527802285727701</v>
+        <v>0.5292999323663914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5874384751273622</v>
+        <v>0.5916034856624617</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>405</v>
@@ -5291,19 +5291,19 @@
         <v>431221</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>403262</v>
+        <v>404580</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>459379</v>
+        <v>460292</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5624694862069717</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5260010258770051</v>
+        <v>0.5277193843670278</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5991976301552191</v>
+        <v>0.6003887807943823</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1014</v>
@@ -5312,19 +5312,19 @@
         <v>1078601</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1030627</v>
+        <v>1032514</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1119426</v>
+        <v>1124655</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5612621763482496</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5362987050138337</v>
+        <v>0.5372807492257695</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5825062321258544</v>
+        <v>0.5852269617560011</v>
       </c>
     </row>
     <row r="23">
@@ -5341,19 +5341,19 @@
         <v>328187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>298105</v>
+        <v>295781</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>363565</v>
+        <v>360731</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2841240218547071</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2580812228759379</v>
+        <v>0.2560688403967121</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3147519401351845</v>
+        <v>0.3122989059988879</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>229</v>
@@ -5362,19 +5362,19 @@
         <v>248904</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>222514</v>
+        <v>223865</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>276039</v>
+        <v>273974</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3246611792472267</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2902388358611704</v>
+        <v>0.2920020393185632</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3600553883579682</v>
+        <v>0.3573618978119994</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>531</v>
@@ -5383,19 +5383,19 @@
         <v>577091</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>537688</v>
+        <v>534755</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>620734</v>
+        <v>621711</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3002958727861816</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2797923113278388</v>
+        <v>0.2782656728721873</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.323006169671227</v>
+        <v>0.3235145944439078</v>
       </c>
     </row>
     <row r="24">
@@ -5412,19 +5412,19 @@
         <v>139189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>114828</v>
+        <v>117934</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>163439</v>
+        <v>165170</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1205009483842808</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09941053822539157</v>
+        <v>0.1021002735179041</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1414953264049201</v>
+        <v>0.142994355391686</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -5433,19 +5433,19 @@
         <v>56809</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43831</v>
+        <v>44459</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72762</v>
+        <v>74727</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07409954948107664</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05717139483890508</v>
+        <v>0.05799071440192397</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09490827449017528</v>
+        <v>0.09747075141970862</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>184</v>
@@ -5454,19 +5454,19 @@
         <v>195998</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>171137</v>
+        <v>169753</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>226547</v>
+        <v>222832</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1019896231127912</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08905308655702708</v>
+        <v>0.08833308969697408</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1178864544994039</v>
+        <v>0.11595299164596</v>
       </c>
     </row>
     <row r="25">
@@ -5483,19 +5483,19 @@
         <v>30450</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21213</v>
+        <v>20479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43428</v>
+        <v>44253</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02636133743091077</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01836447107305162</v>
+        <v>0.01772986300305339</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03759688808286722</v>
+        <v>0.03831173556613417</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -5504,19 +5504,19 @@
         <v>15281</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8306</v>
+        <v>8408</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26909</v>
+        <v>26247</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01993257516666072</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0108335979354186</v>
+        <v>0.01096742052162865</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03509893850117557</v>
+        <v>0.03423532194240909</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -5525,19 +5525,19 @@
         <v>45731</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32770</v>
+        <v>32531</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62913</v>
+        <v>61972</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02379665377525501</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01705250334692087</v>
+        <v>0.01692776506540687</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03273770852528168</v>
+        <v>0.03224784478969309</v>
       </c>
     </row>
     <row r="26">
@@ -5554,19 +5554,19 @@
         <v>9879</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4850</v>
+        <v>4972</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17726</v>
+        <v>18058</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008552837118303257</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004199248317851739</v>
+        <v>0.00430459085284989</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01534612251255622</v>
+        <v>0.01563369361581078</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -5575,19 +5575,19 @@
         <v>14442</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7669</v>
+        <v>7470</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24931</v>
+        <v>25360</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01883720989806425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01000285514849719</v>
+        <v>0.009743469764187813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03251895586261194</v>
+        <v>0.03307828000260501</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -5596,19 +5596,19 @@
         <v>24321</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14792</v>
+        <v>14897</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36307</v>
+        <v>36516</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01265567397752267</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007697022647507067</v>
+        <v>0.007752027237738065</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01889294290000304</v>
+        <v>0.01900152104516868</v>
       </c>
     </row>
     <row r="27">
@@ -5700,19 +5700,19 @@
         <v>279779</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>254516</v>
+        <v>257689</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>302455</v>
+        <v>302299</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5502273201654685</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5005446286479157</v>
+        <v>0.5067840460009201</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5948237087001166</v>
+        <v>0.594517158601219</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>364</v>
@@ -5721,19 +5721,19 @@
         <v>393439</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>363228</v>
+        <v>365447</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>420766</v>
+        <v>421979</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5173956153516197</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4776659417118088</v>
+        <v>0.4805839986151016</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5533320565460169</v>
+        <v>0.5549272247406224</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>633</v>
@@ -5742,19 +5742,19 @@
         <v>673218</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>634599</v>
+        <v>637807</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>705855</v>
+        <v>711239</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5305520651942617</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5001170160186733</v>
+        <v>0.5026453189472174</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5562724665361761</v>
+        <v>0.5605154027005264</v>
       </c>
     </row>
     <row r="29">
@@ -5771,19 +5771,19 @@
         <v>161405</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>140201</v>
+        <v>140073</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>182726</v>
+        <v>182577</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3174264017568603</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2757259071677176</v>
+        <v>0.2754747477076869</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3593578436250006</v>
+        <v>0.3590644362803469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>228</v>
@@ -5792,19 +5792,19 @@
         <v>246024</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>218504</v>
+        <v>220868</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>270827</v>
+        <v>272380</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3235367149512498</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2873463397779531</v>
+        <v>0.2904543238921215</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3561535302630871</v>
+        <v>0.3581962064242767</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>379</v>
@@ -5813,19 +5813,19 @@
         <v>407429</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>372087</v>
+        <v>373556</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>442626</v>
+        <v>442263</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3210881662231037</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2932359395841262</v>
+        <v>0.2943933858185797</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3488263586356628</v>
+        <v>0.3485399372723952</v>
       </c>
     </row>
     <row r="30">
@@ -5842,19 +5842,19 @@
         <v>56938</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45226</v>
+        <v>42968</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>71444</v>
+        <v>72515</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1119768457995215</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08894379182793909</v>
+        <v>0.08450280857499622</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1405055291938116</v>
+        <v>0.142612218535682</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>89</v>
@@ -5863,19 +5863,19 @@
         <v>97658</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>80065</v>
+        <v>79944</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>118421</v>
+        <v>118577</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1284267088015194</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1052900468405958</v>
+        <v>0.1051307267831663</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1557302396694379</v>
+        <v>0.1559363976075994</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>144</v>
@@ -5884,19 +5884,19 @@
         <v>154596</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>132772</v>
+        <v>132139</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>179591</v>
+        <v>178673</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1218348550208157</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1046352181198319</v>
+        <v>0.1041367446302831</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1415326489630066</v>
+        <v>0.1408095544360965</v>
       </c>
     </row>
     <row r="31">
@@ -5913,19 +5913,19 @@
         <v>9213</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4177</v>
+        <v>4713</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16476</v>
+        <v>17604</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0181185507845894</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008214106955919398</v>
+        <v>0.009268712543232386</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03240228292953612</v>
+        <v>0.03462091298590058</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -5934,19 +5934,19 @@
         <v>17220</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10365</v>
+        <v>10211</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29929</v>
+        <v>28610</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02264547927039466</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0136307449535897</v>
+        <v>0.01342859661806016</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03935870182872833</v>
+        <v>0.03762416216976353</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -5955,19 +5955,19 @@
         <v>26433</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>17383</v>
+        <v>16912</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>39426</v>
+        <v>39739</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02083143068831793</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01369902990347371</v>
+        <v>0.01332773034558842</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03107074713318505</v>
+        <v>0.03131797115584554</v>
       </c>
     </row>
     <row r="32">
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6147</v>
+        <v>6326</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002250881493560207</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01208900508292168</v>
+        <v>0.01244068180531019</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -6005,19 +6005,19 @@
         <v>6080</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2054</v>
+        <v>2044</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12562</v>
+        <v>12204</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007995481625216487</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002700945583949775</v>
+        <v>0.002688346232652322</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01651952243557581</v>
+        <v>0.01604923791273846</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -6026,19 +6026,19 @@
         <v>7224</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3085</v>
+        <v>2951</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14501</v>
+        <v>14116</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005693482873501025</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002431043389878915</v>
+        <v>0.002325933380127387</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01142799716193299</v>
+        <v>0.01112479064139686</v>
       </c>
     </row>
     <row r="33">
@@ -6130,19 +6130,19 @@
         <v>165378</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>149820</v>
+        <v>149162</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>181971</v>
+        <v>180448</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6196679509280837</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5613710990432049</v>
+        <v>0.5589058349878592</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6818425221480693</v>
+        <v>0.6761350002914259</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>574</v>
@@ -6151,19 +6151,19 @@
         <v>610981</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>577899</v>
+        <v>577856</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>644974</v>
+        <v>648703</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5512924927166494</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5214416793742995</v>
+        <v>0.5214033697555948</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5819641735771495</v>
+        <v>0.5853288723652031</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>738</v>
@@ -6172,19 +6172,19 @@
         <v>776360</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>741460</v>
+        <v>736365</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>812885</v>
+        <v>813916</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.564562416965847</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5391837933190553</v>
+        <v>0.5354785863211698</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5911233470699011</v>
+        <v>0.5918733868070938</v>
       </c>
     </row>
     <row r="35">
@@ -6201,19 +6201,19 @@
         <v>79982</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>65459</v>
+        <v>66245</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>96372</v>
+        <v>96271</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2996914756906658</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2452733635657827</v>
+        <v>0.2482171033147808</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3611033371908302</v>
+        <v>0.360725121173181</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>323</v>
@@ -6222,19 +6222,19 @@
         <v>342681</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>312980</v>
+        <v>310066</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>374422</v>
+        <v>373287</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3092034629216546</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2824038456362425</v>
+        <v>0.2797749384344022</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3378434491316257</v>
+        <v>0.3368192578554176</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>402</v>
@@ -6243,19 +6243,19 @@
         <v>422663</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>387286</v>
+        <v>385736</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>455894</v>
+        <v>455085</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3073574299543253</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2816309460993133</v>
+        <v>0.2805041914528086</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3315224030199718</v>
+        <v>0.3309344188482393</v>
       </c>
     </row>
     <row r="36">
@@ -6272,19 +6272,19 @@
         <v>20610</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12386</v>
+        <v>13505</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29519</v>
+        <v>31640</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07722699796612409</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0464102321143793</v>
+        <v>0.05060388438665712</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1106053142927616</v>
+        <v>0.1185548319634369</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>115</v>
@@ -6293,19 +6293,19 @@
         <v>120331</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>99697</v>
+        <v>101351</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>139889</v>
+        <v>141973</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1085756788992839</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0899569512779384</v>
+        <v>0.09144999031052743</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1262225555068048</v>
+        <v>0.1281029598552665</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>136</v>
@@ -6314,19 +6314,19 @@
         <v>140942</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>119892</v>
+        <v>119175</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>165245</v>
+        <v>165958</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1024917032715238</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08718476363391529</v>
+        <v>0.08666304094897676</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1201648860058352</v>
+        <v>0.120683473873657</v>
       </c>
     </row>
     <row r="37">
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4544</v>
+        <v>4592</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.003413575415126416</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0170245516405584</v>
+        <v>0.01720618650281807</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>26</v>
@@ -6364,19 +6364,19 @@
         <v>29294</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19507</v>
+        <v>18764</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42231</v>
+        <v>41935</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02643206026632507</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01760089186508409</v>
+        <v>0.01693125193612928</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03810512654717043</v>
+        <v>0.03783844071274989</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>27</v>
@@ -6385,19 +6385,19 @@
         <v>30205</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20214</v>
+        <v>20259</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>44138</v>
+        <v>42766</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02196476222845059</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01469944914955845</v>
+        <v>0.01473203597628965</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03209643397528458</v>
+        <v>0.03109874392759568</v>
       </c>
     </row>
     <row r="38">
@@ -6427,19 +6427,19 @@
         <v>4983</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1937</v>
+        <v>1948</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>10563</v>
+        <v>10816</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.004496305196086973</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001748181939848716</v>
+        <v>0.00175752145790566</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.009530932768624129</v>
+        <v>0.009759239384988665</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5</v>
@@ -6448,19 +6448,19 @@
         <v>4983</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1956</v>
+        <v>1936</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11176</v>
+        <v>11078</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.003623687579853288</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001422052234252068</v>
+        <v>0.001407599622151753</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.008126836046911995</v>
+        <v>0.008055574968623818</v>
       </c>
     </row>
     <row r="39">
@@ -6552,19 +6552,19 @@
         <v>2054446</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1994100</v>
+        <v>1994758</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2113528</v>
+        <v>2107804</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6018539225712816</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5841754027418818</v>
+        <v>0.5843684011886623</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6191622411078594</v>
+        <v>0.6174852789789489</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1859</v>
@@ -6573,19 +6573,19 @@
         <v>2003915</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1943014</v>
+        <v>1939760</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2066687</v>
+        <v>2063037</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5652512305407347</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5480728060099229</v>
+        <v>0.5471548131870171</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5829576570020994</v>
+        <v>0.5819281952808391</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3790</v>
@@ -6594,19 +6594,19 @@
         <v>4058361</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3974392</v>
+        <v>3973877</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4145922</v>
+        <v>4140972</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5832063487788786</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5711395915673817</v>
+        <v>0.5710656585238073</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5957892400669611</v>
+        <v>0.5950780219412821</v>
       </c>
     </row>
     <row r="41">
@@ -6623,19 +6623,19 @@
         <v>937712</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>885784</v>
+        <v>889592</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>996308</v>
+        <v>997810</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2747046867160158</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2594922703055487</v>
+        <v>0.2606078314600098</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2918703818343534</v>
+        <v>0.2923105155160914</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1005</v>
@@ -6644,19 +6644,19 @@
         <v>1080301</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1022558</v>
+        <v>1023314</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1137186</v>
+        <v>1139673</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3047244255934642</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2884366122921403</v>
+        <v>0.2886496653362233</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.320770019992494</v>
+        <v>0.3214715082947449</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1876</v>
@@ -6665,19 +6665,19 @@
         <v>2018014</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1943462</v>
+        <v>1941321</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2102420</v>
+        <v>2098628</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2899985152540564</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2792850479857039</v>
+        <v>0.2789772812312947</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3021281195003569</v>
+        <v>0.3015831460288731</v>
       </c>
     </row>
     <row r="42">
@@ -6694,19 +6694,19 @@
         <v>331428</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>299337</v>
+        <v>294667</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>368933</v>
+        <v>367954</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.09709253252773592</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08769141959963137</v>
+        <v>0.08632319654761246</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.108079684661104</v>
+        <v>0.1077927675550164</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>323</v>
@@ -6715,19 +6715,19 @@
         <v>348085</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>311808</v>
+        <v>311376</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>383354</v>
+        <v>386400</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09818566391209671</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0879527645066827</v>
+        <v>0.08783080470804938</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1081339699848249</v>
+        <v>0.1089931948884679</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>638</v>
@@ -6736,19 +6736,19 @@
         <v>679514</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>625847</v>
+        <v>631716</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>730211</v>
+        <v>739525</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09764943823668344</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08993722687104957</v>
+        <v>0.09078066232608016</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1049349658635941</v>
+        <v>0.1062733183657777</v>
       </c>
     </row>
     <row r="43">
@@ -6765,19 +6765,19 @@
         <v>67275</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>51715</v>
+        <v>51493</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>85105</v>
+        <v>84733</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01970836191275733</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01514989379759242</v>
+        <v>0.01508483259029775</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02493161012445924</v>
+        <v>0.02482281004009817</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>73</v>
@@ -6786,19 +6786,19 @@
         <v>83241</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>65654</v>
+        <v>65013</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>103147</v>
+        <v>105429</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02348020718988568</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01851914945931772</v>
+        <v>0.01833845588528294</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02909503574798223</v>
+        <v>0.02973859462160645</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>135</v>
@@ -6807,19 +6807,19 @@
         <v>150517</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>126321</v>
+        <v>128097</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>179900</v>
+        <v>179059</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02162996273599948</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01815291483220719</v>
+        <v>0.01840819189092291</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02585249543712017</v>
+        <v>0.02573162394002199</v>
       </c>
     </row>
     <row r="44">
@@ -6836,19 +6836,19 @@
         <v>22668</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>12382</v>
+        <v>14184</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>35817</v>
+        <v>35373</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.006640496272209404</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003627477012086426</v>
+        <v>0.004155211622383061</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01049254831737629</v>
+        <v>0.01036260122234431</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>26</v>
@@ -6857,19 +6857,19 @@
         <v>29632</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>19447</v>
+        <v>20429</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>42286</v>
+        <v>44121</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.00835847276381875</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.005485444616599797</v>
+        <v>0.005762423978331652</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0119277373355772</v>
+        <v>0.0124454516129433</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>44</v>
@@ -6878,19 +6878,19 @@
         <v>52300</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>37412</v>
+        <v>38784</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>71580</v>
+        <v>70448</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.007515734994382166</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.005376272242783497</v>
+        <v>0.00557341460899456</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01028640311449142</v>
+        <v>0.01012372713468541</v>
       </c>
     </row>
     <row r="45">
@@ -7224,19 +7224,19 @@
         <v>249473</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>228538</v>
+        <v>227144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>270415</v>
+        <v>270973</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5825709330240041</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5336842670076855</v>
+        <v>0.5304287647559547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6314768343846436</v>
+        <v>0.6327782512789309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -7245,19 +7245,19 @@
         <v>187777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>169061</v>
+        <v>168390</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>208145</v>
+        <v>206524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.542518467877533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4884457736696584</v>
+        <v>0.4865066160626753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6013653928669085</v>
+        <v>0.5966801588048712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>411</v>
@@ -7266,19 +7266,19 @@
         <v>437250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>410635</v>
+        <v>407680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>468168</v>
+        <v>465462</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5646681431337252</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5302978745230357</v>
+        <v>0.5264810405092369</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6045967407031584</v>
+        <v>0.601101606630646</v>
       </c>
     </row>
     <row r="5">
@@ -7295,19 +7295,19 @@
         <v>124683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105718</v>
+        <v>105574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143092</v>
+        <v>143846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2911619120356432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2468742095130512</v>
+        <v>0.2465385105522923</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3341502681613112</v>
+        <v>0.3359103820949317</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -7316,19 +7316,19 @@
         <v>118477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100475</v>
+        <v>100168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>136707</v>
+        <v>137271</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3422982030203768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2902874973236349</v>
+        <v>0.2894018600410768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3949687891719962</v>
+        <v>0.3965988274326691</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>230</v>
@@ -7337,19 +7337,19 @@
         <v>243160</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>218007</v>
+        <v>216604</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>270878</v>
+        <v>269674</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3140189888702388</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2815366310090102</v>
+        <v>0.2797249975930531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3498139897154552</v>
+        <v>0.3482593933460754</v>
       </c>
     </row>
     <row r="6">
@@ -7366,19 +7366,19 @@
         <v>46815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34386</v>
+        <v>33827</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62110</v>
+        <v>61507</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1093233329562572</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08029823265523756</v>
+        <v>0.07899401385756556</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.145040218126169</v>
+        <v>0.1436320032713433</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -7387,19 +7387,19 @@
         <v>35883</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25205</v>
+        <v>25741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49414</v>
+        <v>48708</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1036732795336988</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07282036692906017</v>
+        <v>0.07437007640817651</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1427662198875103</v>
+        <v>0.1407266403397355</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -7408,19 +7408,19 @@
         <v>82699</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66640</v>
+        <v>65760</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101795</v>
+        <v>103050</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1067978524665294</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08606012858348369</v>
+        <v>0.08492252637789129</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.131459398041352</v>
+        <v>0.1330801806009051</v>
       </c>
     </row>
     <row r="7">
@@ -7437,19 +7437,19 @@
         <v>5192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11520</v>
+        <v>11651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01212455659162046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004534846269474807</v>
+        <v>0.004540357882322257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02690047687282195</v>
+        <v>0.02720842128910155</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7458,19 +7458,19 @@
         <v>3984</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1140</v>
+        <v>1027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9695</v>
+        <v>10042</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01151004956839138</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003294657616057872</v>
+        <v>0.00296774521700525</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0280096287490592</v>
+        <v>0.02901378071934024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -7479,19 +7479,19 @@
         <v>9176</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4724</v>
+        <v>4717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17727</v>
+        <v>16938</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01184988210946963</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006100051917261554</v>
+        <v>0.006091220927677765</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02289233099103668</v>
+        <v>0.02187439055182293</v>
       </c>
     </row>
     <row r="8">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7122</v>
+        <v>7147</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00481926539247505</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01663215158197529</v>
+        <v>0.01668988026833524</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8530</v>
+        <v>7280</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002665133420037017</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01101620401546523</v>
+        <v>0.009401933532190591</v>
       </c>
     </row>
     <row r="9">
@@ -7646,19 +7646,19 @@
         <v>209752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>190357</v>
+        <v>189242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>227184</v>
+        <v>228720</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5581021947996607</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5064968276029317</v>
+        <v>0.5035300595062456</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6044857444853949</v>
+        <v>0.6085730700048027</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>196</v>
@@ -7667,19 +7667,19 @@
         <v>207090</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>187230</v>
+        <v>185674</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226600</v>
+        <v>225736</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5578507474625697</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5043521092094232</v>
+        <v>0.5001607741244208</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6104058305058583</v>
+        <v>0.608080320277434</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>393</v>
@@ -7688,19 +7688,19 @@
         <v>416841</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>389073</v>
+        <v>391220</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>443279</v>
+        <v>443791</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5579772456700617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.520806512324411</v>
+        <v>0.5236813666877513</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5933662781812724</v>
+        <v>0.5940519852880111</v>
       </c>
     </row>
     <row r="11">
@@ -7717,19 +7717,19 @@
         <v>114518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97899</v>
+        <v>95885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132650</v>
+        <v>133884</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3047074380242017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2604886272700241</v>
+        <v>0.2551296426051711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3529511071245838</v>
+        <v>0.3562367088263821</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -7738,19 +7738,19 @@
         <v>123931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>107095</v>
+        <v>105529</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143476</v>
+        <v>143867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3338414142750563</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.288487588728925</v>
+        <v>0.2842691509086523</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3864890747907196</v>
+        <v>0.3875426239371762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>222</v>
@@ -7759,19 +7759,19 @@
         <v>238449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>211694</v>
+        <v>213152</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>264877</v>
+        <v>264246</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3191846841005243</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2833708264896654</v>
+        <v>0.2853213583059646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3545603119392737</v>
+        <v>0.3537149621762793</v>
       </c>
     </row>
     <row r="12">
@@ -7788,19 +7788,19 @@
         <v>43405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31208</v>
+        <v>32273</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56279</v>
+        <v>57334</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1154900683473068</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08303839309668255</v>
+        <v>0.08587045272460446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.149745173968402</v>
+        <v>0.1525520955406275</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -7809,19 +7809,19 @@
         <v>34223</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24365</v>
+        <v>24037</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46169</v>
+        <v>45580</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09218740881607987</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06563385472405844</v>
+        <v>0.06475086589296235</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1243695519254664</v>
+        <v>0.122782847356206</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>75</v>
@@ -7830,19 +7830,19 @@
         <v>77627</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62149</v>
+        <v>61080</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>96901</v>
+        <v>96451</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.103910518293392</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08319214465869249</v>
+        <v>0.081760930144778</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.129709638779512</v>
+        <v>0.1291077671555234</v>
       </c>
     </row>
     <row r="13">
@@ -7859,19 +7859,19 @@
         <v>5033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1889</v>
+        <v>1993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10864</v>
+        <v>11041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01339175529467538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005025090409398253</v>
+        <v>0.00530212723722086</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02890631243791215</v>
+        <v>0.02937631812906695</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -7880,19 +7880,19 @@
         <v>5984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2027</v>
+        <v>2017</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12200</v>
+        <v>12094</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01612042944629424</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005460894017824382</v>
+        <v>0.005433797645571293</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03286350821855265</v>
+        <v>0.03257706322257456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -7901,19 +7901,19 @@
         <v>11017</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5839</v>
+        <v>5981</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19799</v>
+        <v>19365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01474768717348743</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007816584958574985</v>
+        <v>0.008006643267255406</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02650244750947863</v>
+        <v>0.02592215083772527</v>
       </c>
     </row>
     <row r="14">
@@ -7930,19 +7930,19 @@
         <v>3123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8526</v>
+        <v>8495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00830854353415536</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002571104102467524</v>
+        <v>0.002633377049984934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02268596659789484</v>
+        <v>0.02260362132461802</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7964,19 +7964,19 @@
         <v>3123</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8449</v>
+        <v>8458</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00417986476253463</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001319496120269222</v>
+        <v>0.001323232577006762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01130930603580502</v>
+        <v>0.01132117128536086</v>
       </c>
     </row>
     <row r="15">
@@ -8068,19 +8068,19 @@
         <v>244436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>221594</v>
+        <v>222070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266741</v>
+        <v>269650</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4683463175637474</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4245790611900155</v>
+        <v>0.4254910540945782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5110820390849498</v>
+        <v>0.516656338295341</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -8089,19 +8089,19 @@
         <v>74381</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60207</v>
+        <v>62370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86899</v>
+        <v>88856</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4519525378786173</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3658285271336001</v>
+        <v>0.378967219080697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5280090655965411</v>
+        <v>0.5399033458049023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>307</v>
@@ -8110,19 +8110,19 @@
         <v>318818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>293065</v>
+        <v>294449</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>347406</v>
+        <v>347270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4644161011510851</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.426902846773734</v>
+        <v>0.4289186435148377</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5060596858072283</v>
+        <v>0.5058612281023396</v>
       </c>
     </row>
     <row r="17">
@@ -8139,19 +8139,19 @@
         <v>182918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161677</v>
+        <v>161427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204512</v>
+        <v>206813</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3504747762248409</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3097773496811472</v>
+        <v>0.3092989081521857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3918496987906542</v>
+        <v>0.3962581195964465</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -8160,19 +8160,19 @@
         <v>50186</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38615</v>
+        <v>38879</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64516</v>
+        <v>63033</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3049403752097168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.234630110039989</v>
+        <v>0.2362335714134917</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3920058632221352</v>
+        <v>0.3829987631342496</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>225</v>
@@ -8181,19 +8181,19 @@
         <v>233104</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>209641</v>
+        <v>208245</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>260825</v>
+        <v>259103</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3395584376105851</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3053801523380642</v>
+        <v>0.3033459954109656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3799387607697988</v>
+        <v>0.3774297766607215</v>
       </c>
     </row>
     <row r="18">
@@ -8210,19 +8210,19 @@
         <v>77421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62738</v>
+        <v>62940</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>95859</v>
+        <v>96836</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1483402585009476</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1202080003536229</v>
+        <v>0.1205945952666895</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1836678783840044</v>
+        <v>0.1855409479101423</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -8231,19 +8231,19 @@
         <v>30435</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21151</v>
+        <v>20514</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41829</v>
+        <v>42493</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.184925782466119</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1285187596045733</v>
+        <v>0.1246469326407819</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2541614955758906</v>
+        <v>0.2581912568960359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -8252,19 +8252,19 @@
         <v>107856</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89025</v>
+        <v>87723</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>128700</v>
+        <v>127827</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1571112087952346</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.129681691113826</v>
+        <v>0.1277847213301641</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.187475307626794</v>
+        <v>0.1862025945628678</v>
       </c>
     </row>
     <row r="19">
@@ -8281,19 +8281,19 @@
         <v>11466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5662</v>
+        <v>5598</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22107</v>
+        <v>20430</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02196887493866942</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01084896598998983</v>
+        <v>0.01072682810733631</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04235788746057258</v>
+        <v>0.03914397648229133</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -8302,19 +8302,19 @@
         <v>7136</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2277</v>
+        <v>2270</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15837</v>
+        <v>16646</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04335826048110442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01383494301870405</v>
+        <v>0.01379035717003612</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09622774495515779</v>
+        <v>0.1011444427347776</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -8323,19 +8323,19 @@
         <v>18602</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10625</v>
+        <v>10478</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32171</v>
+        <v>30817</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02709672926697242</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01547683343092044</v>
+        <v>0.01526332229802123</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04686331001778164</v>
+        <v>0.04489074453781565</v>
       </c>
     </row>
     <row r="20">
@@ -8352,19 +8352,19 @@
         <v>5673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1982</v>
+        <v>1886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12223</v>
+        <v>12072</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01086977277179457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00379794733421654</v>
+        <v>0.003613339449361393</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02341993489964609</v>
+        <v>0.02312974643361618</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8575</v>
+        <v>7719</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01482304396444249</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05210300472895417</v>
+        <v>0.04689884549778724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -8394,19 +8394,19 @@
         <v>8113</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3917</v>
+        <v>3625</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15771</v>
+        <v>15120</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0118175231761228</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005705803909970495</v>
+        <v>0.005280968428461037</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02297329501419153</v>
+        <v>0.02202466664676879</v>
       </c>
     </row>
     <row r="21">
@@ -8498,19 +8498,19 @@
         <v>528996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>497287</v>
+        <v>494721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>564232</v>
+        <v>560008</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4610175729923583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4333826054948266</v>
+        <v>0.4311469852538843</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4917253460652076</v>
+        <v>0.488043734127227</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>383</v>
@@ -8519,19 +8519,19 @@
         <v>396093</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>365896</v>
+        <v>367654</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>425073</v>
+        <v>425708</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4796030322728585</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4430395481845457</v>
+        <v>0.4451682769708408</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5146936082204508</v>
+        <v>0.5154621824100892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>895</v>
@@ -8540,19 +8540,19 @@
         <v>925089</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>880618</v>
+        <v>881847</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>972376</v>
+        <v>965357</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4687959392410415</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.446259848255971</v>
+        <v>0.4468828175386543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4927591884864048</v>
+        <v>0.4892022605394521</v>
       </c>
     </row>
     <row r="23">
@@ -8569,19 +8569,19 @@
         <v>429574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>398641</v>
+        <v>394202</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>466228</v>
+        <v>464473</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.374371545946346</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3474137647727294</v>
+        <v>0.3435452371439632</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4063148200714048</v>
+        <v>0.4047860360194848</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>285</v>
@@ -8590,19 +8590,19 @@
         <v>293962</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>265648</v>
+        <v>265994</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>324455</v>
+        <v>322544</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3559400945417523</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3216555448810535</v>
+        <v>0.3220752064942315</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3928612415137625</v>
+        <v>0.3905482761895293</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>694</v>
@@ -8611,19 +8611,19 @@
         <v>723537</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>681679</v>
+        <v>681102</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>768280</v>
+        <v>767909</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3666576349067542</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3454457906757199</v>
+        <v>0.3451534162939074</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.389331877805639</v>
+        <v>0.3891439622962837</v>
       </c>
     </row>
     <row r="24">
@@ -8640,19 +8640,19 @@
         <v>163829</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>140127</v>
+        <v>140630</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>185782</v>
+        <v>191168</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.142776075407148</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1221195388486553</v>
+        <v>0.1225586175715556</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1619079526683498</v>
+        <v>0.1666021033965406</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -8661,19 +8661,19 @@
         <v>115140</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>95909</v>
+        <v>93839</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>133804</v>
+        <v>135708</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1394152546276035</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1161304146047575</v>
+        <v>0.1136232466585452</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1620141709889952</v>
+        <v>0.1643206042672403</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>267</v>
@@ -8682,19 +8682,19 @@
         <v>278969</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>249495</v>
+        <v>251089</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>312454</v>
+        <v>312741</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1413695083417374</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.126433305446931</v>
+        <v>0.1272413737306886</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1583383623349123</v>
+        <v>0.158483902759269</v>
       </c>
     </row>
     <row r="25">
@@ -8711,19 +8711,19 @@
         <v>22767</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14268</v>
+        <v>14893</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33239</v>
+        <v>35491</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01984097771174435</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01243469329138558</v>
+        <v>0.01297908075135752</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.028967962402802</v>
+        <v>0.03093002430854135</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -8732,19 +8732,19 @@
         <v>16513</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10552</v>
+        <v>10156</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27177</v>
+        <v>25951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01999440721127804</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01277675779689056</v>
+        <v>0.01229680059523799</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03290677361669243</v>
+        <v>0.0314223709119089</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -8753,19 +8753,19 @@
         <v>39280</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28727</v>
+        <v>27756</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54679</v>
+        <v>54761</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01990519085938377</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01455751468101634</v>
+        <v>0.01406576731168026</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02770909806102871</v>
+        <v>0.02775036717178694</v>
       </c>
     </row>
     <row r="26">
@@ -8785,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8069</v>
+        <v>7097</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001993827942403228</v>
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007031869594579366</v>
+        <v>0.006185425467315668</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -8803,19 +8803,19 @@
         <v>4168</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1072</v>
+        <v>1028</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10486</v>
+        <v>9837</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00504721134650763</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001298363109275697</v>
+        <v>0.001245217700860292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01269657608502828</v>
+        <v>0.01191148147489281</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -8824,19 +8824,19 @@
         <v>6456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2476</v>
+        <v>2958</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14331</v>
+        <v>14037</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003271726651083181</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001254881916363065</v>
+        <v>0.001499226643010088</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007262222869020982</v>
+        <v>0.007113456843641314</v>
       </c>
     </row>
     <row r="27">
@@ -8928,19 +8928,19 @@
         <v>271122</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>246567</v>
+        <v>246297</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>294253</v>
+        <v>295960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4375425782030026</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3979154674246756</v>
+        <v>0.3974789204598912</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4748721421252188</v>
+        <v>0.4776267839557677</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>327</v>
@@ -8949,19 +8949,19 @@
         <v>343689</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>316117</v>
+        <v>312913</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>370285</v>
+        <v>372060</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4655486619595696</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4282012584867914</v>
+        <v>0.4238607278605106</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5015749454141215</v>
+        <v>0.5039791005913296</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>585</v>
@@ -8970,19 +8970,19 @@
         <v>614811</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>575725</v>
+        <v>577845</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>650275</v>
+        <v>652380</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4527686301133192</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4239842691100016</v>
+        <v>0.4255452721947157</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4788856063770431</v>
+        <v>0.4804358867931767</v>
       </c>
     </row>
     <row r="29">
@@ -8999,19 +8999,19 @@
         <v>211340</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>189752</v>
+        <v>188393</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>236289</v>
+        <v>237115</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3410643559081551</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3062266935922771</v>
+        <v>0.3040327933507644</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3813282925606953</v>
+        <v>0.3826616606242517</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>233</v>
@@ -9020,19 +9020,19 @@
         <v>248103</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>221775</v>
+        <v>223825</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>272907</v>
+        <v>274914</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3360720287766728</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3004082963828643</v>
+        <v>0.3031861621670928</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3696706719181744</v>
+        <v>0.3723884252779423</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>436</v>
@@ -9041,19 +9041,19 @@
         <v>459443</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>424868</v>
+        <v>425380</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>496358</v>
+        <v>492583</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3383501802055488</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3128877339520934</v>
+        <v>0.3132649782402471</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3655360051727625</v>
+        <v>0.3627556175314022</v>
       </c>
     </row>
     <row r="30">
@@ -9070,19 +9070,19 @@
         <v>109759</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>91119</v>
+        <v>92628</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>128045</v>
+        <v>130988</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.177132008590001</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1470493828293019</v>
+        <v>0.1494855825228137</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2066411237081247</v>
+        <v>0.211392094237817</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>104</v>
@@ -9091,19 +9091,19 @@
         <v>107863</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>89758</v>
+        <v>88783</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>128836</v>
+        <v>127654</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1461073134290689</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1215835460218234</v>
+        <v>0.1202626556733176</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1745169585197867</v>
+        <v>0.1729162768585933</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>213</v>
@@ -9112,19 +9112,19 @@
         <v>217622</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>191680</v>
+        <v>189804</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>246819</v>
+        <v>244661</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1602648299038223</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1411596220604704</v>
+        <v>0.1397785394314278</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.181766201242797</v>
+        <v>0.1801772847014556</v>
       </c>
     </row>
     <row r="31">
@@ -9141,19 +9141,19 @@
         <v>23475</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15444</v>
+        <v>15385</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35172</v>
+        <v>35718</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03788491172524337</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02492431614785898</v>
+        <v>0.02482829628067311</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05676075363114835</v>
+        <v>0.05764203366730645</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -9162,19 +9162,19 @@
         <v>33512</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22785</v>
+        <v>22398</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46094</v>
+        <v>46978</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04539369603253866</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03086338153446687</v>
+        <v>0.03033974384245699</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06243704480998251</v>
+        <v>0.06363425532795113</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>53</v>
@@ -9183,19 +9183,19 @@
         <v>56987</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>43843</v>
+        <v>43129</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>73200</v>
+        <v>75085</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04196720829480358</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03228775086673069</v>
+        <v>0.03176202999421476</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05390705075084907</v>
+        <v>0.05529514465094123</v>
       </c>
     </row>
     <row r="32">
@@ -9212,19 +9212,19 @@
         <v>3951</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>970</v>
+        <v>1116</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9282</v>
+        <v>10008</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006376145573597938</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001565240356318281</v>
+        <v>0.001801298167425839</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01497991705642032</v>
+        <v>0.01615188918405889</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -9233,19 +9233,19 @@
         <v>5078</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1807</v>
+        <v>1113</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12645</v>
+        <v>12265</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006878299802149995</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002447091744698951</v>
+        <v>0.001507858217710041</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01712842640192165</v>
+        <v>0.0166141337861532</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -9254,19 +9254,19 @@
         <v>9029</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4073</v>
+        <v>4012</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17618</v>
+        <v>17729</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006649151482506063</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002999706621912737</v>
+        <v>0.00295459171830145</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01297426930575487</v>
+        <v>0.01305623162458325</v>
       </c>
     </row>
     <row r="33">
@@ -9358,19 +9358,19 @@
         <v>154848</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>137083</v>
+        <v>137401</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>172782</v>
+        <v>173165</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5392690106447291</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4773991510029594</v>
+        <v>0.47850775403014</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.601722943858478</v>
+        <v>0.6030579244792444</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>466</v>
@@ -9379,19 +9379,19 @@
         <v>500491</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>469033</v>
+        <v>468616</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>536144</v>
+        <v>532689</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4634931055324706</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.434360778812354</v>
+        <v>0.43397444770462</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.496510715630237</v>
+        <v>0.4933107339807747</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>614</v>
@@ -9400,19 +9400,19 @@
         <v>655340</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>616997</v>
+        <v>617761</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>694905</v>
+        <v>692614</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.479410563769685</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4513612311533345</v>
+        <v>0.451920122747256</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5083542654118068</v>
+        <v>0.5066780298625831</v>
       </c>
     </row>
     <row r="35">
@@ -9429,19 +9429,19 @@
         <v>100284</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>84755</v>
+        <v>83399</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>117084</v>
+        <v>117630</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3492444968209185</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2951654050472529</v>
+        <v>0.2904420179221372</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4077534697017456</v>
+        <v>0.4096534307427079</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>336</v>
@@ -9450,19 +9450,19 @@
         <v>367243</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>337147</v>
+        <v>336862</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>399071</v>
+        <v>398743</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3400953467372525</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3122242357436549</v>
+        <v>0.3119604385801556</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3695707135470554</v>
+        <v>0.3692663093999089</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>430</v>
@@ -9471,19 +9471,19 @@
         <v>467527</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>434140</v>
+        <v>433772</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>504453</v>
+        <v>502036</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3420172137759506</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3175931333289201</v>
+        <v>0.3173236546095006</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3690298737151977</v>
+        <v>0.3672621501436956</v>
       </c>
     </row>
     <row r="36">
@@ -9500,19 +9500,19 @@
         <v>27614</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>19027</v>
+        <v>18876</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>39255</v>
+        <v>39850</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09616725048196796</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06626424549489567</v>
+        <v>0.0657356917519307</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1367065818238543</v>
+        <v>0.1387796828048657</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>163</v>
@@ -9521,19 +9521,19 @@
         <v>182813</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>159065</v>
+        <v>158758</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>209171</v>
+        <v>208769</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1692987754965321</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1473062803917326</v>
+        <v>0.1470218754521818</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1937084650882728</v>
+        <v>0.1933359556729025</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>189</v>
@@ -9542,19 +9542,19 @@
         <v>210427</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>182289</v>
+        <v>182883</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>238031</v>
+        <v>237615</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1539367947518797</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1333526667849378</v>
+        <v>0.133786975254914</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.174130251477447</v>
+        <v>0.1738260774014498</v>
       </c>
     </row>
     <row r="37">
@@ -9571,19 +9571,19 @@
         <v>4399</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10860</v>
+        <v>10707</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01531924205238453</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.00360786100210086</v>
+        <v>0.003705575677513907</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03782189590762947</v>
+        <v>0.03728765599553734</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -9592,19 +9592,19 @@
         <v>22319</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13857</v>
+        <v>13854</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>34733</v>
+        <v>34564</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02066911820895534</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01283298994290415</v>
+        <v>0.01282995171129012</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03216516031050091</v>
+        <v>0.03200888877885986</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -9613,19 +9613,19 @@
         <v>26718</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>17503</v>
+        <v>16883</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>39091</v>
+        <v>38072</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01954532522792357</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01280433936875513</v>
+        <v>0.01235090130853196</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0285970257657924</v>
+        <v>0.02785139535403936</v>
       </c>
     </row>
     <row r="38">
@@ -9655,19 +9655,19 @@
         <v>6958</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2380</v>
+        <v>3110</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13925</v>
+        <v>14793</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.00644365402478938</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.002204241068349513</v>
+        <v>0.002879818200174956</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01289543341932177</v>
+        <v>0.01369929774438348</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -9676,19 +9676,19 @@
         <v>6958</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2546</v>
+        <v>2554</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>14444</v>
+        <v>14834</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005090102474561166</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001862635856135203</v>
+        <v>0.001868424983856256</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01056639915157038</v>
+        <v>0.01085187828712986</v>
       </c>
     </row>
     <row r="39">
@@ -9780,19 +9780,19 @@
         <v>1658627</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1602446</v>
+        <v>1600780</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1716278</v>
+        <v>1716688</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.490686680602771</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4740660825260964</v>
+        <v>0.4735731215718935</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5077420012342985</v>
+        <v>0.5078631427097133</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1623</v>
@@ -9801,19 +9801,19 @@
         <v>1709520</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1648705</v>
+        <v>1650864</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1768968</v>
+        <v>1774354</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4848505090915118</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4676022304488536</v>
+        <v>0.4682146131903417</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5017110616750392</v>
+        <v>0.5032384142779935</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3205</v>
@@ -9822,19 +9822,19 @@
         <v>3368148</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3287106</v>
+        <v>3281370</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3453040</v>
+        <v>3450364</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.4877070504827894</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.4759722457965889</v>
+        <v>0.4751417086041377</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4999994024823727</v>
+        <v>0.4996119810356558</v>
       </c>
     </row>
     <row r="41">
@@ -9851,19 +9851,19 @@
         <v>1163317</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1109667</v>
+        <v>1108692</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1217670</v>
+        <v>1217270</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3441544475688104</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3282828040422587</v>
+        <v>0.327994209322586</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3602343387244571</v>
+        <v>0.3601158944937533</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1132</v>
@@ -9872,19 +9872,19 @@
         <v>1201903</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1149473</v>
+        <v>1141511</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1259638</v>
+        <v>1266561</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3408811595916258</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3260110668787448</v>
+        <v>0.3237529744627404</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3572557668321907</v>
+        <v>0.35921932946411</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2237</v>
@@ -9893,19 +9893,19 @@
         <v>2365220</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2297968</v>
+        <v>2289348</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2451669</v>
+        <v>2450455</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3424832856728009</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3327452458423998</v>
+        <v>0.331497075234585</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3550011142233394</v>
+        <v>0.3548253606893763</v>
       </c>
     </row>
     <row r="42">
@@ -9922,19 +9922,19 @@
         <v>468843</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>427104</v>
+        <v>428816</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>509956</v>
+        <v>513918</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1387020235208155</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1263539164429675</v>
+        <v>0.1268606155734284</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1508649646556212</v>
+        <v>0.1520370940630885</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>469</v>
@@ -9943,19 +9943,19 @@
         <v>506356</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>461484</v>
+        <v>464813</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>545376</v>
+        <v>548644</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1436116812099387</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1308850871879224</v>
+        <v>0.1318293079402115</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1546783713811021</v>
+        <v>0.1556051743833109</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>917</v>
@@ -9964,19 +9964,19 @@
         <v>975199</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>925338</v>
+        <v>919846</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1036151</v>
+        <v>1035692</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1412086263341647</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1339887337825511</v>
+        <v>0.1331935508410889</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1500344785303218</v>
+        <v>0.1499680378015924</v>
       </c>
     </row>
     <row r="43">
@@ -9993,19 +9993,19 @@
         <v>72332</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>56987</v>
+        <v>56168</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>93134</v>
+        <v>90574</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02139853119100306</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01685891221234636</v>
+        <v>0.01661660188168726</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02755277168611323</v>
+        <v>0.02679532807175291</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>81</v>
@@ -10014,19 +10014,19 @@
         <v>89448</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>70339</v>
+        <v>73113</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>109231</v>
+        <v>114038</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02536893492358319</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01994942533940207</v>
+        <v>0.02073602457109414</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03097990511333439</v>
+        <v>0.03234320164135796</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>148</v>
@@ -10035,19 +10035,19 @@
         <v>161779</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>135535</v>
+        <v>136505</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>192286</v>
+        <v>187705</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02342560228157328</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01962547400717114</v>
+        <v>0.01976586988781327</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0278429644869025</v>
+        <v>0.02717957675234916</v>
       </c>
     </row>
     <row r="44">
@@ -10064,19 +10064,19 @@
         <v>17098</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10322</v>
+        <v>10104</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>27634</v>
+        <v>26395</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005058317116600086</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003053600248930013</v>
+        <v>0.002989070589584109</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.008175102961664779</v>
+        <v>0.007808603149895077</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>16</v>
@@ -10085,19 +10085,19 @@
         <v>18644</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>11193</v>
+        <v>11091</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>29990</v>
+        <v>30931</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.005287715183340496</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003174487813099046</v>
+        <v>0.003145585809525848</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.008505610036363121</v>
+        <v>0.008772579404929939</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>33</v>
@@ -10106,19 +10106,19 @@
         <v>35742</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>25432</v>
+        <v>24316</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>49851</v>
+        <v>48546</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.005175435228671778</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003682614191297892</v>
+        <v>0.003520975931597321</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.007218457291724549</v>
+        <v>0.007029433080113833</v>
       </c>
     </row>
     <row r="45">
@@ -10452,19 +10452,19 @@
         <v>354577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>330493</v>
+        <v>331077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>375383</v>
+        <v>378873</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6439622556119475</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.600222075626466</v>
+        <v>0.6012823550909193</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6817485560883294</v>
+        <v>0.6880875757921642</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>483</v>
@@ -10473,19 +10473,19 @@
         <v>347531</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>328065</v>
+        <v>330124</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>363515</v>
+        <v>365352</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7148187348092138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6747800040797488</v>
+        <v>0.6790145871598522</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7476951388261337</v>
+        <v>0.7514730307475574</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>830</v>
@@ -10494,19 +10494,19 @@
         <v>702108</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>671460</v>
+        <v>671290</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>730882</v>
+        <v>732093</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6771886189983708</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6476283658928517</v>
+        <v>0.6474644530151407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7049407441633</v>
+        <v>0.7061085684239216</v>
       </c>
     </row>
     <row r="5">
@@ -10523,19 +10523,19 @@
         <v>150836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131401</v>
+        <v>130230</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>173851</v>
+        <v>173524</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2739403091628636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2386420892486707</v>
+        <v>0.2365165070625981</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3157385376346896</v>
+        <v>0.3151440979132449</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>155</v>
@@ -10544,19 +10544,19 @@
         <v>107338</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93262</v>
+        <v>90871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124978</v>
+        <v>122182</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2207782918509148</v>
+        <v>0.2207782918509147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1918249286148343</v>
+        <v>0.186908705810489</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2570598856139755</v>
+        <v>0.2513094880873218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>317</v>
@@ -10565,19 +10565,19 @@
         <v>258175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>233155</v>
+        <v>232774</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>285560</v>
+        <v>286283</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2490113185388095</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.224879536135144</v>
+        <v>0.224512526284817</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2754248348860001</v>
+        <v>0.2761224634138902</v>
       </c>
     </row>
     <row r="6">
@@ -10594,19 +10594,19 @@
         <v>27122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16207</v>
+        <v>17571</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40998</v>
+        <v>40872</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04925657594550803</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02943467837591567</v>
+        <v>0.03191132261785398</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07445894499240364</v>
+        <v>0.07422916746560725</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -10615,19 +10615,19 @@
         <v>19155</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13368</v>
+        <v>13016</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28221</v>
+        <v>28881</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03939814381124927</v>
+        <v>0.03939814381124926</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02749545708059305</v>
+        <v>0.0267712954194327</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05804715895364463</v>
+        <v>0.05940461239363709</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -10636,19 +10636,19 @@
         <v>46276</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34374</v>
+        <v>34712</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63574</v>
+        <v>61303</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04463371220426372</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03315379871985</v>
+        <v>0.03347974235016705</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06131784065170053</v>
+        <v>0.05912693835249549</v>
       </c>
     </row>
     <row r="7">
@@ -10665,19 +10665,19 @@
         <v>11435</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5886</v>
+        <v>5550</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20986</v>
+        <v>21967</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02076788276840081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01068910675458137</v>
+        <v>0.01007988445971889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03811420989759225</v>
+        <v>0.0398944042092934</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -10686,19 +10686,19 @@
         <v>4046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1706</v>
+        <v>1656</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8223</v>
+        <v>7656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008321963751885635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003508578942083705</v>
+        <v>0.003405787365264605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01691387130784658</v>
+        <v>0.0157470857305216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -10707,19 +10707,19 @@
         <v>15481</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8693</v>
+        <v>8823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25889</v>
+        <v>25891</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0149316821470089</v>
+        <v>0.01493168214700889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008384757659843341</v>
+        <v>0.008509477188144494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02497053388949756</v>
+        <v>0.02497211539385879</v>
       </c>
     </row>
     <row r="8">
@@ -10736,19 +10736,19 @@
         <v>6648</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2333</v>
+        <v>2260</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14304</v>
+        <v>14202</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01207297651128013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004236789314563137</v>
+        <v>0.004103693485675355</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02597723577239012</v>
+        <v>0.02579361066029681</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -10757,19 +10757,19 @@
         <v>8111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4021</v>
+        <v>3622</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17786</v>
+        <v>17082</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01668286577673652</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008271495175012168</v>
+        <v>0.00744888096139532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03658410448630346</v>
+        <v>0.03513478535969469</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -10778,19 +10778,19 @@
         <v>14758</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8329</v>
+        <v>8011</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25228</v>
+        <v>24499</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01423466811154716</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008033301060221631</v>
+        <v>0.007726568825433273</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02433306393513706</v>
+        <v>0.02362904199924923</v>
       </c>
     </row>
     <row r="9">
@@ -10882,19 +10882,19 @@
         <v>262503</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>242332</v>
+        <v>240087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>285975</v>
+        <v>285871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5439331008599843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5021360519044169</v>
+        <v>0.497483563692715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5925690360684779</v>
+        <v>0.5923525829861217</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>368</v>
@@ -10903,19 +10903,19 @@
         <v>269363</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>251867</v>
+        <v>249812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>287040</v>
+        <v>286445</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6387862619115707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5972947033720498</v>
+        <v>0.5924228946457245</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6807076521030814</v>
+        <v>0.679296670285647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>619</v>
@@ -10924,19 +10924,19 @@
         <v>531867</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>500422</v>
+        <v>501979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>559685</v>
+        <v>559439</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5881644712443599</v>
+        <v>0.5881644712443598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5533916608771535</v>
+        <v>0.5551129073130705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6189277908869224</v>
+        <v>0.6186559447249458</v>
       </c>
     </row>
     <row r="11">
@@ -10953,19 +10953,19 @@
         <v>170879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150969</v>
+        <v>150356</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>191722</v>
+        <v>192764</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3540777734729725</v>
+        <v>0.3540777734729724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.312823430953199</v>
+        <v>0.3115523104994272</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.39726709058846</v>
+        <v>0.3994257449988435</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>171</v>
@@ -10974,19 +10974,19 @@
         <v>118930</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102985</v>
+        <v>103984</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>137164</v>
+        <v>137192</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.282038928993177</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2442249634678738</v>
+        <v>0.2465959001767589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3252812168915885</v>
+        <v>0.3253474507841466</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>349</v>
@@ -10995,19 +10995,19 @@
         <v>289809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>264304</v>
+        <v>261555</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>317923</v>
+        <v>316947</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3204850415395019</v>
+        <v>0.3204850415395018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2922806626083488</v>
+        <v>0.2892403464762225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.351575384869089</v>
+        <v>0.3504961655956265</v>
       </c>
     </row>
     <row r="12">
@@ -11024,19 +11024,19 @@
         <v>31743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21632</v>
+        <v>22675</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44282</v>
+        <v>46109</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06577391658167712</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04482404373720193</v>
+        <v>0.04698387007866651</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09175689605728718</v>
+        <v>0.09554315998812779</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -11045,19 +11045,19 @@
         <v>22106</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15222</v>
+        <v>15200</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32993</v>
+        <v>31737</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05242325470960213</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03609805069176768</v>
+        <v>0.0360469623844764</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07824082212637205</v>
+        <v>0.07526244843120815</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -11066,19 +11066,19 @@
         <v>53848</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41839</v>
+        <v>42344</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69603</v>
+        <v>69667</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05954831414952252</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0462679745295109</v>
+        <v>0.04682658896925389</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07697072044586002</v>
+        <v>0.0770412703316269</v>
       </c>
     </row>
     <row r="13">
@@ -11095,19 +11095,19 @@
         <v>15544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9061</v>
+        <v>9243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24113</v>
+        <v>24625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03220790400267004</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01877505130921738</v>
+        <v>0.0191526280640413</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04996367521062257</v>
+        <v>0.05102454822142335</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -11116,19 +11116,19 @@
         <v>6808</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3459</v>
+        <v>3791</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11711</v>
+        <v>12367</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01614392236800403</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008204022772771092</v>
+        <v>0.008990591040259802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02777311252259101</v>
+        <v>0.02932822924785524</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -11137,19 +11137,19 @@
         <v>22351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15023</v>
+        <v>15181</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32380</v>
+        <v>32032</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02471704219423447</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01661314154914284</v>
+        <v>0.01678796367763104</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03580709433209728</v>
+        <v>0.03542249760310989</v>
       </c>
     </row>
     <row r="14">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7654</v>
+        <v>8548</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004007305082696097</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01586055880136257</v>
+        <v>0.01771216582986847</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -11187,19 +11187,19 @@
         <v>4473</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1955</v>
+        <v>1806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9056</v>
+        <v>8582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01060763201764611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004635270419641918</v>
+        <v>0.004282191376588523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02147560231272286</v>
+        <v>0.0203516878880263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -11208,19 +11208,19 @@
         <v>6407</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3160</v>
+        <v>3058</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12298</v>
+        <v>12960</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007085130872381376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003494986087454932</v>
+        <v>0.003381167777170668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01359983893762907</v>
+        <v>0.01433186270226621</v>
       </c>
     </row>
     <row r="15">
@@ -11312,19 +11312,19 @@
         <v>269416</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>246978</v>
+        <v>246468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>289684</v>
+        <v>290426</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5721754766727614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5245210749965811</v>
+        <v>0.5234378740314284</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6152193733617909</v>
+        <v>0.6167950615179151</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>163</v>
@@ -11333,19 +11333,19 @@
         <v>108065</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97746</v>
+        <v>97151</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>120904</v>
+        <v>119754</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5763553406479762</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5213213365088405</v>
+        <v>0.5181484929462516</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6448299285003541</v>
+        <v>0.6386982300374653</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -11354,19 +11354,19 @@
         <v>377481</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>352739</v>
+        <v>352378</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>401260</v>
+        <v>400391</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5733658784431311</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5357844784587759</v>
+        <v>0.5352367601852941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6094834174035743</v>
+        <v>0.6081636486720132</v>
       </c>
     </row>
     <row r="17">
@@ -11383,19 +11383,19 @@
         <v>140587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120263</v>
+        <v>120967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>160755</v>
+        <v>161016</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.298573240828242</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2554107253862381</v>
+        <v>0.2569048888916682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3414045776079084</v>
+        <v>0.3419601199427256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -11404,19 +11404,19 @@
         <v>61693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50558</v>
+        <v>51322</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71987</v>
+        <v>72525</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3290347364740059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2696461145741668</v>
+        <v>0.2737220691503297</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3839350579146292</v>
+        <v>0.3868083059654966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>249</v>
@@ -11425,19 +11425,19 @@
         <v>202280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>181381</v>
+        <v>180847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>227052</v>
+        <v>225527</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3072485036023052</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2755042953010611</v>
+        <v>0.2746930504164949</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3448748112678889</v>
+        <v>0.3425581358251503</v>
       </c>
     </row>
     <row r="18">
@@ -11454,19 +11454,19 @@
         <v>37957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28372</v>
+        <v>27233</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51461</v>
+        <v>50417</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0806111311645256</v>
+        <v>0.08061113116452558</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06025590537699146</v>
+        <v>0.05783703693569012</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1092916714351954</v>
+        <v>0.1070734371109324</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -11475,19 +11475,19 @@
         <v>11747</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7301</v>
+        <v>7289</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17737</v>
+        <v>17569</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06265376522957988</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03893789609254634</v>
+        <v>0.03887783087926076</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09459803766079278</v>
+        <v>0.093700992699046</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -11496,19 +11496,19 @@
         <v>49704</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>39324</v>
+        <v>39127</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>64041</v>
+        <v>63493</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07549697426207785</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05973051873253211</v>
+        <v>0.05943144604845615</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09727391022500391</v>
+        <v>0.09644044309970738</v>
       </c>
     </row>
     <row r="19">
@@ -11525,19 +11525,19 @@
         <v>13805</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8481</v>
+        <v>7962</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22107</v>
+        <v>22521</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0293176244020316</v>
+        <v>0.02931762440203159</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01801204078160561</v>
+        <v>0.01690914764746562</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04695016974383116</v>
+        <v>0.04782855564692419</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -11546,19 +11546,19 @@
         <v>5245</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2338</v>
+        <v>2320</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10799</v>
+        <v>10321</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02797565461613945</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0124689259203146</v>
+        <v>0.01237284473663759</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05759592427842795</v>
+        <v>0.05504363513907424</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -11567,19 +11567,19 @@
         <v>19050</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12371</v>
+        <v>12091</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28760</v>
+        <v>27429</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02893543894853806</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01879020427044877</v>
+        <v>0.01836577583740961</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04368394946532752</v>
+        <v>0.04166304245754836</v>
       </c>
     </row>
     <row r="20">
@@ -11596,19 +11596,19 @@
         <v>9098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4024</v>
+        <v>4006</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19297</v>
+        <v>19607</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01932252693243948</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008545569648130179</v>
+        <v>0.008507381705182733</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0409824063304212</v>
+        <v>0.04164047005560432</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4413</v>
+        <v>3758</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003980503032298473</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02353742878501441</v>
+        <v>0.02004299500569893</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -11638,19 +11638,19 @@
         <v>9845</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4284</v>
+        <v>3775</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19314</v>
+        <v>20221</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01495320474394773</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006507293750179052</v>
+        <v>0.005733576673459039</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02933627145665366</v>
+        <v>0.03071483747422878</v>
       </c>
     </row>
     <row r="21">
@@ -11742,19 +11742,19 @@
         <v>631403</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>593032</v>
+        <v>593994</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>667146</v>
+        <v>663676</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5600077843580111</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5259758163174744</v>
+        <v>0.5268291367116538</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5917099699474898</v>
+        <v>0.5886322149037578</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>676</v>
@@ -11763,19 +11763,19 @@
         <v>498387</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>473163</v>
+        <v>472522</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>521960</v>
+        <v>523870</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5799800117289778</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5506265626244162</v>
+        <v>0.5498807862088946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6074114394653943</v>
+        <v>0.6096351225318528</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1252</v>
@@ -11784,19 +11784,19 @@
         <v>1129790</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1090288</v>
+        <v>1085772</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1173761</v>
+        <v>1170300</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5686460113034425</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5487638197663881</v>
+        <v>0.546490862228021</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5907775882703038</v>
+        <v>0.589035343880434</v>
       </c>
     </row>
     <row r="23">
@@ -11813,19 +11813,19 @@
         <v>342399</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>312894</v>
+        <v>311014</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>376766</v>
+        <v>376191</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3036824553422798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2775143459444421</v>
+        <v>0.2758465004215176</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3341633692109833</v>
+        <v>0.3336535186426031</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>388</v>
@@ -11834,19 +11834,19 @@
         <v>253626</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>233176</v>
+        <v>228813</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>278338</v>
+        <v>278676</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2951481203127592</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2713505120944579</v>
+        <v>0.2662732152435888</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3239056337702488</v>
+        <v>0.3242993868448257</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>754</v>
@@ -11855,19 +11855,19 @@
         <v>596025</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>557692</v>
+        <v>554901</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>636129</v>
+        <v>633443</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2999912534826158</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2806975816895383</v>
+        <v>0.2792928354448405</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3201764395122925</v>
+        <v>0.3188246501022614</v>
       </c>
     </row>
     <row r="24">
@@ -11884,19 +11884,19 @@
         <v>104141</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>86762</v>
+        <v>86678</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>126997</v>
+        <v>126117</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09236573681511248</v>
+        <v>0.0923657368151125</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07695119101215429</v>
+        <v>0.07687738253011075</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1126370273692727</v>
+        <v>0.1118567697435793</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>101</v>
@@ -11905,19 +11905,19 @@
         <v>64750</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52835</v>
+        <v>53176</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>78118</v>
+        <v>77911</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07534989628953714</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06148482057294956</v>
+        <v>0.06188125215317609</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09090735314754753</v>
+        <v>0.09066651308387182</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>214</v>
@@ -11926,19 +11926,19 @@
         <v>168891</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>148772</v>
+        <v>145520</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>195089</v>
+        <v>192059</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08500618250016118</v>
+        <v>0.08500618250016116</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07487988823658087</v>
+        <v>0.07324292255726911</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09819240282840859</v>
+        <v>0.09666699116207438</v>
       </c>
     </row>
     <row r="25">
@@ -11955,19 +11955,19 @@
         <v>38108</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27084</v>
+        <v>27393</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50254</v>
+        <v>50161</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03379901038724882</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02402169063202175</v>
+        <v>0.02429531847943155</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04457188969321359</v>
+        <v>0.04448912375064445</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -11976,19 +11976,19 @@
         <v>31606</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23455</v>
+        <v>23215</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41789</v>
+        <v>42056</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03678078162938705</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02729509012458215</v>
+        <v>0.02701536126635628</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04863054225158876</v>
+        <v>0.04894141806975126</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -11997,19 +11997,19 @@
         <v>69714</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56148</v>
+        <v>56116</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85793</v>
+        <v>86876</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03508866207258831</v>
+        <v>0.03508866207258832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02826022820588149</v>
+        <v>0.02824419951706153</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04318132723805816</v>
+        <v>0.04372624587279355</v>
       </c>
     </row>
     <row r="26">
@@ -12026,19 +12026,19 @@
         <v>11438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6284</v>
+        <v>6261</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19025</v>
+        <v>19508</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01014501309734767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005573211592707564</v>
+        <v>0.005553377878951756</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0168736531345672</v>
+        <v>0.01730232325579703</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -12047,19 +12047,19 @@
         <v>10949</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6401</v>
+        <v>6204</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17520</v>
+        <v>17337</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01274119003933885</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007449365686945527</v>
+        <v>0.007220077789021579</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02038881678925957</v>
+        <v>0.02017551887951497</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -12068,19 +12068,19 @@
         <v>22387</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15505</v>
+        <v>15090</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32041</v>
+        <v>31592</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01126789064119221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007804099359684928</v>
+        <v>0.007595011581705254</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01612687189259573</v>
+        <v>0.01590075401047976</v>
       </c>
     </row>
     <row r="27">
@@ -12172,19 +12172,19 @@
         <v>265091</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>238749</v>
+        <v>237666</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>291692</v>
+        <v>291275</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4681859761655355</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4216626927429928</v>
+        <v>0.4197502384425676</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5151667714461272</v>
+        <v>0.5144306223000426</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>602</v>
@@ -12193,19 +12193,19 @@
         <v>398374</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>373223</v>
+        <v>375080</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>422441</v>
+        <v>422670</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4810646341586798</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4506936374068344</v>
+        <v>0.4529361193055211</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5101267709532306</v>
+        <v>0.5104042606459236</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>845</v>
@@ -12214,19 +12214,19 @@
         <v>663465</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>630332</v>
+        <v>625131</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>699856</v>
+        <v>698725</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4758348272564284</v>
+        <v>0.4758348272564283</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4520719604798246</v>
+        <v>0.4483417690579109</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5019344578343296</v>
+        <v>0.5011234527847752</v>
       </c>
     </row>
     <row r="29">
@@ -12243,19 +12243,19 @@
         <v>177416</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>155009</v>
+        <v>154556</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>202559</v>
+        <v>201749</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3133398986026261</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2737658707841715</v>
+        <v>0.2729665839606523</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3577464550965404</v>
+        <v>0.356315070746564</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>412</v>
@@ -12264,19 +12264,19 @@
         <v>257309</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>236533</v>
+        <v>235216</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>278956</v>
+        <v>280055</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3107189397970084</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2856303843797134</v>
+        <v>0.2840402882279703</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.336858958374268</v>
+        <v>0.3381865233991638</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>594</v>
@@ -12285,19 +12285,19 @@
         <v>434725</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>404468</v>
+        <v>403229</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>465903</v>
+        <v>468191</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3117832671872872</v>
+        <v>0.3117832671872871</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2900827197876436</v>
+        <v>0.2891944523912371</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3341436597594317</v>
+        <v>0.3357846494451582</v>
       </c>
     </row>
     <row r="30">
@@ -12314,19 +12314,19 @@
         <v>76721</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>59788</v>
+        <v>59076</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98512</v>
+        <v>98843</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1354991360205211</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1055938600638726</v>
+        <v>0.1043351708102396</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1739859328913338</v>
+        <v>0.1745695190696283</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>162</v>
@@ -12335,19 +12335,19 @@
         <v>96835</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>83080</v>
+        <v>83416</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>111397</v>
+        <v>112838</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1169355177147048</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1003250124632174</v>
+        <v>0.1007310318478184</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1345193512764129</v>
+        <v>0.1362604025424201</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>230</v>
@@ -12356,19 +12356,19 @@
         <v>173556</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>152721</v>
+        <v>148608</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>200832</v>
+        <v>198734</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1244738916041428</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1095312723840354</v>
+        <v>0.1065809396398761</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1440362483811996</v>
+        <v>0.1425316535084264</v>
       </c>
     </row>
     <row r="31">
@@ -12385,19 +12385,19 @@
         <v>36353</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25981</v>
+        <v>25824</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>49130</v>
+        <v>50082</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06420504061287879</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04588623916440967</v>
+        <v>0.04560795522199789</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08676959302750144</v>
+        <v>0.08845140615092625</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>84</v>
@@ -12406,19 +12406,19 @@
         <v>59601</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>47186</v>
+        <v>46534</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75229</v>
+        <v>76418</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.07197248051454982</v>
+        <v>0.07197248051454981</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05698000044047141</v>
+        <v>0.05619290418622034</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09084471768991144</v>
+        <v>0.09228032784423311</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>123</v>
@@ -12427,19 +12427,19 @@
         <v>95955</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>78548</v>
+        <v>78118</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>116237</v>
+        <v>117428</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06881825351106799</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05633461531096736</v>
+        <v>0.0560262581404181</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08336475354114395</v>
+        <v>0.08421904592254134</v>
       </c>
     </row>
     <row r="32">
@@ -12456,19 +12456,19 @@
         <v>10628</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5711</v>
+        <v>5791</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18001</v>
+        <v>18332</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01876994859843842</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01008627997256292</v>
+        <v>0.01022711419926184</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0317929000462787</v>
+        <v>0.03237733515380449</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -12477,19 +12477,19 @@
         <v>15989</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10739</v>
+        <v>10250</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23452</v>
+        <v>23615</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01930842781505717</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01296813021302121</v>
+        <v>0.01237810225365218</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02831957008726763</v>
+        <v>0.02851693053678082</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -12498,19 +12498,19 @@
         <v>26617</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18541</v>
+        <v>19127</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>36194</v>
+        <v>36738</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01908976044107373</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01329749584503832</v>
+        <v>0.01371776378079848</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02595842757600002</v>
+        <v>0.02634852120340744</v>
       </c>
     </row>
     <row r="33">
@@ -12602,19 +12602,19 @@
         <v>178152</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>157090</v>
+        <v>155000</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>197853</v>
+        <v>196317</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7509756687554017</v>
+        <v>0.7509756687554016</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6621904328029551</v>
+        <v>0.6533810016486101</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.834019571513458</v>
+        <v>0.8275455057085019</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>526</v>
@@ -12623,19 +12623,19 @@
         <v>419610</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>393872</v>
+        <v>391884</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>449284</v>
+        <v>448412</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4991219420639019</v>
+        <v>0.4991219420639018</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.468506741319515</v>
+        <v>0.4661418990163261</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5344189615431904</v>
+        <v>0.5333824426567898</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>602</v>
@@ -12644,19 +12644,19 @@
         <v>597762</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>557150</v>
+        <v>560127</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>631708</v>
+        <v>631704</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5545495014844659</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5168730209542197</v>
+        <v>0.5196353328735929</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5860409550009374</v>
+        <v>0.5860376889565266</v>
       </c>
     </row>
     <row r="35">
@@ -12673,19 +12673,19 @@
         <v>48705</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>31061</v>
+        <v>32558</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>69374</v>
+        <v>72398</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2053104608154927</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1309310847016374</v>
+        <v>0.1372435120459762</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2924362901353268</v>
+        <v>0.3051831050059383</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>417</v>
@@ -12694,19 +12694,19 @@
         <v>289480</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>261420</v>
+        <v>264498</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>314857</v>
+        <v>313894</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.3443337603880258</v>
+        <v>0.3443337603880257</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3109566658544186</v>
+        <v>0.3146183795111356</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3745197283312175</v>
+        <v>0.3733744835353933</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>442</v>
@@ -12715,19 +12715,19 @@
         <v>338185</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>308114</v>
+        <v>305584</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>373077</v>
+        <v>373405</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3137377382480068</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2858403538834994</v>
+        <v>0.2834931252918996</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3461069221403402</v>
+        <v>0.3464117034716226</v>
       </c>
     </row>
     <row r="36">
@@ -12744,19 +12744,19 @@
         <v>7285</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3159</v>
+        <v>3063</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14813</v>
+        <v>15250</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03071026873839493</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01331445877997177</v>
+        <v>0.0129130976711416</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06244180691146337</v>
+        <v>0.06428241107870793</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>139</v>
@@ -12765,19 +12765,19 @@
         <v>86241</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>72293</v>
+        <v>72532</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>102390</v>
+        <v>102572</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1025830931469618</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08599205755189945</v>
+        <v>0.08627569490968783</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1217918792087746</v>
+        <v>0.1220082453453599</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>147</v>
@@ -12786,19 +12786,19 @@
         <v>93527</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>77836</v>
+        <v>78625</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>110550</v>
+        <v>109988</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08676543859817942</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07220911284681859</v>
+        <v>0.07294093094900751</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1025578464443029</v>
+        <v>0.1020368605040144</v>
       </c>
     </row>
     <row r="37">
@@ -12818,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2212</v>
+        <v>2917</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002175275107561948</v>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.009322984110469711</v>
+        <v>0.01229746445422551</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -12836,19 +12836,19 @@
         <v>37988</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>29672</v>
+        <v>29758</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>49179</v>
+        <v>48942</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.04518625016411518</v>
+        <v>0.04518625016411516</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03529455122050657</v>
+        <v>0.03539678175221107</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05849755275089998</v>
+        <v>0.058216312894925</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>64</v>
@@ -12857,19 +12857,19 @@
         <v>38504</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>29945</v>
+        <v>29593</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>49472</v>
+        <v>49727</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03572046457896202</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02778014876332997</v>
+        <v>0.02745330355845956</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04589531947526345</v>
+        <v>0.04613256850060742</v>
       </c>
     </row>
     <row r="38">
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8391</v>
+        <v>9119</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01082832658314877</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03537200265680202</v>
+        <v>0.03843797054980543</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -12907,19 +12907,19 @@
         <v>7377</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3397</v>
+        <v>3031</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>17793</v>
+        <v>18752</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.008774954236995413</v>
+        <v>0.008774954236995411</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.004040658812953817</v>
+        <v>0.003605683984189214</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02116469126995146</v>
+        <v>0.02230502785003879</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -12928,19 +12928,19 @@
         <v>9946</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4526</v>
+        <v>4928</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>20620</v>
+        <v>21931</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.009226857090386066</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004199124251186521</v>
+        <v>0.004572073940860519</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0191295123152323</v>
+        <v>0.02034593897159649</v>
       </c>
     </row>
     <row r="39">
@@ -13032,19 +13032,19 @@
         <v>1961143</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1902193</v>
+        <v>1896730</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2026676</v>
+        <v>2022853</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.5709279933135272</v>
+        <v>0.5709279933135269</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.553766615071743</v>
+        <v>0.5521760039704501</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5900061138911568</v>
+        <v>0.5888929834458283</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2818</v>
@@ -13053,19 +13053,19 @@
         <v>2041330</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1991627</v>
+        <v>1991543</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2091159</v>
+        <v>2095609</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5633617378245804</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5496448078470346</v>
+        <v>0.5496215813659064</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5771134625820363</v>
+        <v>0.5783415207596064</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4578</v>
@@ -13074,19 +13074,19 @@
         <v>4002473</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3924960</v>
+        <v>3916551</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4086784</v>
+        <v>4082338</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.567043851302667</v>
+        <v>0.5670438513026671</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5560622175197133</v>
+        <v>0.5548709479998769</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5789884900522408</v>
+        <v>0.5783584891798378</v>
       </c>
     </row>
     <row r="41">
@@ -13103,19 +13103,19 @@
         <v>1030822</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>974607</v>
+        <v>978479</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1087155</v>
+        <v>1086025</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.3000929934949529</v>
+        <v>0.3000929934949528</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2837277814710251</v>
+        <v>0.2848548130415854</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3164926338430978</v>
+        <v>0.3161636465179709</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1640</v>
@@ -13124,19 +13124,19 @@
         <v>1088376</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1039737</v>
+        <v>1038275</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1132237</v>
+        <v>1139801</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.3003677135488837</v>
+        <v>0.3003677135488838</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2869443888804406</v>
+        <v>0.2865408696147211</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3124721409179981</v>
+        <v>0.3145598351264773</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2705</v>
@@ -13145,19 +13145,19 @@
         <v>2119199</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2046278</v>
+        <v>2044708</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2188991</v>
+        <v>2195161</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3002340212073077</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2899030131195232</v>
+        <v>0.2896806920148801</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3101217661970948</v>
+        <v>0.3109958680799629</v>
       </c>
     </row>
     <row r="42">
@@ -13174,19 +13174,19 @@
         <v>284969</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>254008</v>
+        <v>254441</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>319354</v>
+        <v>322242</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.08296004760460675</v>
+        <v>0.08296004760460676</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07394667733523037</v>
+        <v>0.07407288553976314</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09297023065506284</v>
+        <v>0.09381106446779049</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>481</v>
@@ -13195,19 +13195,19 @@
         <v>300834</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>274146</v>
+        <v>275080</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>331084</v>
+        <v>329270</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08302346554777128</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07565817863700407</v>
+        <v>0.07591589019308768</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09137171454059845</v>
+        <v>0.0908712733913339</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>774</v>
@@ -13216,19 +13216,19 @@
         <v>585802</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>543260</v>
+        <v>540714</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>629840</v>
+        <v>635920</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08299260324559027</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07696551847413489</v>
+        <v>0.07660479868761849</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08923150473066616</v>
+        <v>0.09009286092270627</v>
       </c>
     </row>
     <row r="43">
@@ -13245,19 +13245,19 @@
         <v>115761</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>98048</v>
+        <v>96108</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>140742</v>
+        <v>139751</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03370031464438101</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02854378879154438</v>
+        <v>0.02797894923629148</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04097269952939463</v>
+        <v>0.04068441749194258</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>219</v>
@@ -13266,19 +13266,19 @@
         <v>145294</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>126216</v>
+        <v>126871</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>167820</v>
+        <v>166628</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.04009797751480319</v>
+        <v>0.04009797751480318</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03483284055750907</v>
+        <v>0.0350135347910908</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04631469903913053</v>
+        <v>0.04598569585370602</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>347</v>
@@ -13287,19 +13287,19 @@
         <v>261055</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>232394</v>
+        <v>233456</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>290554</v>
+        <v>293343</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03698455890002734</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03292398032795693</v>
+        <v>0.03307448751763051</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04116375023356801</v>
+        <v>0.04155890335088934</v>
       </c>
     </row>
     <row r="44">
@@ -13316,19 +13316,19 @@
         <v>42315</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>31137</v>
+        <v>30694</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>56868</v>
+        <v>57325</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01231865094253238</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.009064638542879892</v>
+        <v>0.008935683811058068</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01655541486314188</v>
+        <v>0.01668857254148128</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>68</v>
@@ -13337,19 +13337,19 @@
         <v>47646</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>37215</v>
+        <v>37348</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>62479</v>
+        <v>64028</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01314910556396135</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01027047193356473</v>
+        <v>0.01030725384562376</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01724292548327966</v>
+        <v>0.01767040357881504</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>113</v>
@@ -13358,19 +13358,19 @@
         <v>89960</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>73607</v>
+        <v>74057</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>111276</v>
+        <v>113176</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.01274496534440756</v>
+        <v>0.01274496534440755</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01042812553795775</v>
+        <v>0.01049192599926803</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01576489807496726</v>
+        <v>0.01603401220070027</v>
       </c>
     </row>
     <row r="45">
